--- a/src/main/doc/2020年计划.xlsx
+++ b/src/main/doc/2020年计划.xlsx
@@ -3,12 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE968005-CF0B-4667-8341-21895DD6109B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97A72F0-65F5-4751-996B-DBCD21668C7E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="202001" sheetId="1" r:id="rId1"/>
+    <sheet name="目录" sheetId="3" r:id="rId1"/>
+    <sheet name="2020-01" sheetId="1" r:id="rId2"/>
+    <sheet name="2020-02" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,15 +36,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>学习git&amp;github 44~62节</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>学习nginx 、“隔壁泰山练习”</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>学习springboot、                                    俯卧撑3组每组15个，                              深蹲3组，每组25个</t>
+    <t>1.学习git&amp;github 44~62节                         2.俯卧撑3组每组15个                                 3.深蹲3组每组25个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.学习springboot、                                    2.俯卧撑3组每组15个                                 3.深蹲3组每组25个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -371,17 +381,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37839275-C64F-4942-B14F-F9F9214878D8}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.75" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.125" customWidth="1"/>
-    <col min="2" max="2" width="34.375" customWidth="1"/>
+    <col min="2" max="2" width="34.375" style="2" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
   </cols>
   <sheetData>
@@ -389,7 +427,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -421,20 +459,20 @@
         <v>43835</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43836</v>
       </c>
-      <c r="B7" t="s">
-        <v>3</v>
+      <c r="B7" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43837</v>
       </c>
-      <c r="B8" t="s">
-        <v>4</v>
+      <c r="B8" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
@@ -445,9 +483,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43839</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -565,4 +606,17 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEB8FB82-08A4-4D96-A23D-C2B4000B9E06}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/doc/2020年计划.xlsx
+++ b/src/main/doc/2020年计划.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97A72F0-65F5-4751-996B-DBCD21668C7E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27387791-0A61-47E0-A9B0-F245D7E2ADF1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,6 +53,26 @@
   </si>
   <si>
     <t>计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">双周计划检视，回顾总结            1月计划检视，回顾总结              3月计划检视，回顾总结              6月计划检视，回顾总结              1年计划检视，回顾总结   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1周至少运动3次                           2周写一个PPT做一次模拟演讲    每周1个人性格描述 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个计划订立完成标准及考核标准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成及检验标准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -382,29 +402,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37839275-C64F-4942-B14F-F9F9214878D8}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.75" customWidth="1"/>
     <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="25.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -412,8 +455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/src/main/doc/2020年计划.xlsx
+++ b/src/main/doc/2020年计划.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27387791-0A61-47E0-A9B0-F245D7E2ADF1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F7267C-F43A-4E0A-9B23-C7EA14B03DE4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,14 +36,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>学习nginx 、“隔壁泰山练习”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.学习git&amp;github 44~62节                         2.俯卧撑3组每组15个                                 3.深蹲3组每组25个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.学习springboot、                                    2.俯卧撑3组每组15个                                 3.深蹲3组每组25个</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -73,6 +65,26 @@
   </si>
   <si>
     <t>完成度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.学习git&amp;github 44~62节                         2.俯卧撑3组每组10个                                 3.深蹲3组每组25个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.“隔壁泰山练习”                                       2.俯卧撑3组每组10个                                 3.深蹲3组每组25个                </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 学习nginx6~8章                                    2.俯卧撑3组每组10个                                 3.深蹲3组每组25个 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俯卧撑没有完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -116,12 +128,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -417,31 +430,31 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -453,10 +466,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -464,9 +477,10 @@
     <col min="1" max="1" width="17.125" customWidth="1"/>
     <col min="2" max="2" width="34.375" style="2" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -476,90 +490,102 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43831</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43832</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43833</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43834</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43835</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43836</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43837</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43838</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43839</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43840</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43841</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>43842</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43843</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>43844</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43845</v>
       </c>

--- a/src/main/doc/2020年计划.xlsx
+++ b/src/main/doc/2020年计划.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F7267C-F43A-4E0A-9B23-C7EA14B03DE4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F982AFCB-4FC6-4B50-A26C-B3BEFF761D35}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,6 +85,23 @@
   </si>
   <si>
     <t>俯卧撑没有完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-2-30</t>
+  </si>
+  <si>
+    <t>2020-2-31</t>
+  </si>
+  <si>
+    <t>要提升的能力                                                                                                     
+1、文案的能力
+2、PPT的能力
+3、项目管理专业知识的能力
+4、英语听说读写能力
+5、思维模式提升
+6、形成方法论的能力
+7、看人识人的能力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -128,13 +145,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -415,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37839275-C64F-4942-B14F-F9F9214878D8}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9:L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -428,7 +448,7 @@
     <col min="3" max="3" width="25.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -442,22 +462,153 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="71.25" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F9:L22"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -468,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -679,13 +830,270 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEB8FB82-08A4-4D96-A23D-C2B4000B9E06}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="46.125" customWidth="1"/>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="17.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>43862</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>43863</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>43864</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>43865</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>43866</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>43867</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>43868</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>43869</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>43870</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>43871</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>43872</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>43873</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>43874</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>43875</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>43876</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>43877</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>43878</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>43879</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>43880</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>43881</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>43882</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>43885</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>43886</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>43887</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>43888</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>43889</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>43890</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="D32" s="2"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/doc/2020年计划.xlsx
+++ b/src/main/doc/2020年计划.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F982AFCB-4FC6-4B50-A26C-B3BEFF761D35}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C21735-CF61-4D06-A7B9-726885D75488}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,6 +102,17 @@
 5、思维模式提升
 6、形成方法论的能力
 7、看人识人的能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、俯卧撑3组每组10个
+2、深蹲3组每组30个
+3、拉筋10分钟
+4、整理1~2个版本的交付资料
+5、给小妮买灯笼
+6、学习项目管理相关的知识
+7、整理简历
+8、项目经理面试题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -145,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -154,6 +165,9 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -435,9 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37839275-C64F-4942-B14F-F9F9214878D8}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9:L22"/>
     </sheetView>
   </sheetViews>
@@ -617,6 +632,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -830,16 +846,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEB8FB82-08A4-4D96-A23D-C2B4000B9E06}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="2" width="46.125" customWidth="1"/>
+    <col min="2" max="2" width="50.625" customWidth="1"/>
     <col min="3" max="3" width="12.625" customWidth="1"/>
     <col min="4" max="4" width="17.875" customWidth="1"/>
   </cols>
@@ -893,13 +910,11 @@
       <c r="B6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43867</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="B7" s="2"/>
       <c r="C7" s="3">
         <v>0.9</v>
       </c>
@@ -907,34 +922,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="117" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43868</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43869</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="B9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43870</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B10" s="2"/>
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">

--- a/src/main/doc/2020年计划.xlsx
+++ b/src/main/doc/2020年计划.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C21735-CF61-4D06-A7B9-726885D75488}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7536C91E-001B-4ED8-95DC-E3F1256407C7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,6 +113,16 @@
 6、学习项目管理相关的知识
 7、整理简历
 8、项目经理面试题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、俯卧撑3组每组10个
+2、深蹲3组每组30个
+3、拉筋10分钟
+4、学习项目管理相关的知识
+5、整理简历
+6、项目经理面试题
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -163,11 +173,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -493,132 +503,132 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
     </row>
     <row r="17" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
     </row>
     <row r="18" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
     </row>
     <row r="19" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
     </row>
     <row r="20" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
     </row>
     <row r="21" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
     </row>
     <row r="22" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -849,7 +859,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -926,16 +936,18 @@
       <c r="A8" s="1">
         <v>43868</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43869</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">

--- a/src/main/doc/2020年计划.xlsx
+++ b/src/main/doc/2020年计划.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7536C91E-001B-4ED8-95DC-E3F1256407C7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34CC156-ED9E-4F6C-8428-45BF2937ACB4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,17 +12,23 @@
     <sheet name="2020-01" sheetId="1" r:id="rId2"/>
     <sheet name="2020-02" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,6 +129,25 @@
 5、整理简历
 6、项目经理面试题
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、俯卧撑3组每组10个
+2、深蹲3组每组30个
+3、拉筋10分钟
+4、学习项目管理相关的知识
+5、整理简历
+6、项目经理面试题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、俯卧撑3组每组10个
+2、深蹲3组每组30个
+3、拉筋10分钟
+4、学习项目管理相关的知识
+5、学习英语单词25个，复习50个
+6、安装project 软件
+7、学习《刻意学习》并画出脑图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -859,8 +884,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -941,7 +966,7 @@
       </c>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:4" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43869</v>
       </c>
@@ -950,11 +975,13 @@
       </c>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43870</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -978,11 +1005,13 @@
       <c r="B13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43874</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">

--- a/src/main/doc/2020年计划.xlsx
+++ b/src/main/doc/2020年计划.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34CC156-ED9E-4F6C-8428-45BF2937ACB4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA2EBE7-31E6-49B1-AF45-399DEC0A659A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,8 +146,17 @@
 3、拉筋10分钟
 4、学习项目管理相关的知识
 5、学习英语单词25个，复习50个
-6、安装project 软件
-7、学习《刻意学习》并画出脑图</t>
+6、学习《刻意学习》并画出脑图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、俯卧撑3组每组15个
+2、深蹲3组每组30个
+3、拉筋10分钟
+4、学习项目管理相关的知识
+5、学习英语单词25个，复习50个
+6、书写自我介绍
+7、修改简历</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -488,7 +497,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:L22"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -884,8 +893,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1005,23 +1014,28 @@
       <c r="B13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43874</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>43875</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43876</v>
       </c>

--- a/src/main/doc/2020年计划.xlsx
+++ b/src/main/doc/2020年计划.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA2EBE7-31E6-49B1-AF45-399DEC0A659A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4156BB0F-D60F-42FB-97B5-C065B1079F78}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -157,6 +157,16 @@
 5、学习英语单词25个，复习50个
 6、书写自我介绍
 7、修改简历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、俯卧撑3组每组15个
+2、深蹲3组每组30个
+3、拉筋10分钟
+4、学习项目管理相关的知识
+5、学习英语单词25个，复习50个
+6、Excel视频学习（2小时）
+7、关键路径计算学习（2小时）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -893,8 +903,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1035,11 +1045,13 @@
       </c>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43876</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">

--- a/src/main/doc/2020年计划.xlsx
+++ b/src/main/doc/2020年计划.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4156BB0F-D60F-42FB-97B5-C065B1079F78}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784612EC-8C36-48EC-99C4-BD8E1F96583E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -167,6 +167,25 @@
 5、学习英语单词25个，复习50个
 6、Excel视频学习（2小时）
 7、关键路径计算学习（2小时）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、俯卧撑3组每组15个
+2、深蹲3组每组30个
+3、拉筋10分钟
+4、学习项目管理职业发展1小时
+5、学习英语单词25个，复习50个
+6、Excel视频学习（1小时）
+7、关键路径计算学习（1小时）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、俯卧撑3组每组15个
+2、深蹲3组每组30个
+3、拉筋10分钟
+4、学习项目管理职业发展1小时
+5、学习英语单词25个，复习50个
+6、Excel视频学习（1小时）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1054,18 +1073,22 @@
       </c>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>43877</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>43878</v>
       </c>
-      <c r="B18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">

--- a/src/main/doc/2020年计划.xlsx
+++ b/src/main/doc/2020年计划.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784612EC-8C36-48EC-99C4-BD8E1F96583E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCE9D62-216E-47DD-87FD-89950CB4ADC9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -177,6 +177,15 @@
 5、学习英语单词25个，复习50个
 6、Excel视频学习（1小时）
 7、关键路径计算学习（1小时）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、俯卧撑3组每组15个
+2、深蹲3组每组30个
+3、拉筋10分钟
+4、学习项目管理职业发展1小时
+5、学习英语单词25个，复习50个
+6、Excel视频学习（1小时）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -709,7 +718,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D32"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -922,8 +931,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1091,11 +1100,13 @@
       </c>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>43879</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1140,11 +1151,13 @@
       <c r="B25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>43886</v>
       </c>
-      <c r="B26" s="2"/>
+      <c r="B26" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">

--- a/src/main/doc/2020年计划.xlsx
+++ b/src/main/doc/2020年计划.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCE9D62-216E-47DD-87FD-89950CB4ADC9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B819BAA8-CE7B-48D4-8CCA-CB88A9E8018C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,6 +11,7 @@
     <sheet name="目录" sheetId="3" r:id="rId1"/>
     <sheet name="2020-01" sheetId="1" r:id="rId2"/>
     <sheet name="2020-02" sheetId="2" r:id="rId3"/>
+    <sheet name="2020-03" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -192,9 +193,99 @@
     <t>1、俯卧撑3组每组15个
 2、深蹲3组每组30个
 3、拉筋10分钟
-4、学习项目管理职业发展1小时
-5、学习英语单词25个，复习50个
-6、Excel视频学习（1小时）</t>
+4、学习华为devops第4天内容
+5、学习英语单词25个，复习50个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、俯卧撑3组每组15个
+2、深蹲3组每组30个
+3、拉筋10分钟
+4、学习华为devops第5天内容
+5、学习project1~ 6节内容                                                         6、学习英语单词25个，复习100个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、俯卧撑3组每组15个
+2、深蹲3组每组30个
+3、拉筋10分钟
+4、学习华为devops第6天内容
+5、学习project 7~12节内容                                                      6、学习英语单词25个，复习100个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、俯卧撑3组每组15个
+2、深蹲3组每组30个
+3、拉筋10分钟
+4、学习华为devops第7天内容
+5、学习project 13~19节内容                                                   6、学习英语单词25个，复习100个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、学习英语单词25个，复习100个
+2、深蹲3组每组30个
+3、拉筋10分钟
+4、俯卧撑3组每组15个
+5、复习总结project教程节内容
+6、复习总结华为devops7天内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、学习英语单词25个，复习100个
+2、深蹲3组每组30个
+3、拉筋10分钟
+4、俯卧撑3组每组15个
+5、学习敏捷项目管理1~5章（李建昊语音）
+6、学习6天修炼项目管理1~3节《结构化思维》（PM圈子小程序）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、学习英语单词25个，复习100个
+2、深蹲3组每组30个
+3、拉筋10分钟
+4、俯卧撑3组每组15个
+5、学习敏捷项目管理6~10章（李建昊语音）
+6、学习6天修炼项目管理4~6节《结构化思维》（PM圈子小程序）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、学习英语单词25个，复习100个
+2、深蹲3组每组30个
+3、拉筋10分钟
+4、俯卧撑3组每组15个
+5、学习敏捷项目管理11~15章（李建昊语音）
+6、复习6天修炼项目管理4~6节《结构化思维》（PM圈子小程序）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、学习英语单词25个，复习100个
+2、深蹲3组每组30个
+3、拉筋10分钟
+4、俯卧撑3组每组15个
+5、学习敏捷项目管理16~20章（李建昊语音）
+6、学习49天项目管理提高训练营1~3节（PM圈子小程序）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、学习英语单词25个，复习100个
+2、深蹲3组每组30个
+3、拉筋10分钟
+4、俯卧撑3组每组15个
+5、学习敏捷项目管理21~25章（李建昊语音）
+6、学习49天项目管理提高训练营4~6节（PM圈子小程序）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、学习英语单词25个，复习100个
+2、深蹲3组每组30个
+3、拉筋10分钟
+4、俯卧撑3组每组15个
+5、复习敏捷项目管理笔记（李建昊语音）
+6、复习49天项目管理提高训练营笔记（PM圈子小程序）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -202,6 +293,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="[$-804]aaaa;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -238,7 +332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -248,8 +342,12 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -575,132 +673,132 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
     </row>
     <row r="17" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
     </row>
     <row r="18" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
     </row>
     <row r="19" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
     </row>
     <row r="20" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
     </row>
     <row r="21" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
     </row>
     <row r="22" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -931,8 +1029,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1156,7 +1254,7 @@
         <v>43886</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" s="2"/>
     </row>
@@ -1167,25 +1265,31 @@
       <c r="B27" s="2"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>43888</v>
       </c>
-      <c r="B28" s="2"/>
+      <c r="B28" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>43889</v>
       </c>
-      <c r="B29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>43890</v>
       </c>
-      <c r="B30" s="2"/>
+      <c r="B30" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -1201,6 +1305,319 @@
       </c>
       <c r="B32" s="2"/>
       <c r="D32" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF2E6BA-CFF5-4371-9932-A16110937FEB}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:E32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="11.125" customWidth="1"/>
+    <col min="3" max="3" width="40.25" customWidth="1"/>
+    <col min="4" max="4" width="17.375" customWidth="1"/>
+    <col min="5" max="5" width="26.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>43891</v>
+      </c>
+      <c r="B2" s="5">
+        <v>43891</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>43892</v>
+      </c>
+      <c r="B3" s="5">
+        <v>43892</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>43893</v>
+      </c>
+      <c r="B4" s="5">
+        <v>43893</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>43894</v>
+      </c>
+      <c r="B5" s="5">
+        <v>43894</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>43895</v>
+      </c>
+      <c r="B6" s="5">
+        <v>43895</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>43896</v>
+      </c>
+      <c r="B7" s="5">
+        <v>43896</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>43897</v>
+      </c>
+      <c r="B8" s="5">
+        <v>43897</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>43898</v>
+      </c>
+      <c r="B9" s="5">
+        <v>43898</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>43899</v>
+      </c>
+      <c r="B10" s="5">
+        <v>43899</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>43900</v>
+      </c>
+      <c r="B11" s="5">
+        <v>43900</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>43901</v>
+      </c>
+      <c r="B12" s="5">
+        <v>43901</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>43902</v>
+      </c>
+      <c r="B13" s="5">
+        <v>43902</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>43903</v>
+      </c>
+      <c r="B14" s="5">
+        <v>43903</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>43904</v>
+      </c>
+      <c r="B15" s="5">
+        <v>43904</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>43905</v>
+      </c>
+      <c r="B16" s="5">
+        <v>43905</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>43906</v>
+      </c>
+      <c r="B17" s="5">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>43907</v>
+      </c>
+      <c r="B18" s="5">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>43908</v>
+      </c>
+      <c r="B19" s="5">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>43909</v>
+      </c>
+      <c r="B20" s="5">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>43910</v>
+      </c>
+      <c r="B21" s="5">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>43911</v>
+      </c>
+      <c r="B22" s="5">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>43912</v>
+      </c>
+      <c r="B23" s="5">
+        <v>43912</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>43913</v>
+      </c>
+      <c r="B24" s="5">
+        <v>43913</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>43914</v>
+      </c>
+      <c r="B25" s="5">
+        <v>43914</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>43915</v>
+      </c>
+      <c r="B26" s="5">
+        <v>43915</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>43916</v>
+      </c>
+      <c r="B27" s="5">
+        <v>43916</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>43917</v>
+      </c>
+      <c r="B28" s="5">
+        <v>43917</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>43918</v>
+      </c>
+      <c r="B29" s="5">
+        <v>43918</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>43919</v>
+      </c>
+      <c r="B30" s="5">
+        <v>43919</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>43920</v>
+      </c>
+      <c r="B31" s="5">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B32" s="5">
+        <v>43921</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/src/main/doc/2020年计划.xlsx
+++ b/src/main/doc/2020年计划.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B819BAA8-CE7B-48D4-8CCA-CB88A9E8018C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A41D475-D1D8-4796-9BA5-A0F0523B6157}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -344,10 +344,10 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -673,132 +673,132 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
     </row>
     <row r="17" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
     </row>
     <row r="18" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
     </row>
     <row r="19" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
     </row>
     <row r="20" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
     </row>
     <row r="21" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
     </row>
     <row r="22" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -815,7 +815,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -1030,7 +1030,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1376,7 +1376,7 @@
       <c r="B4" s="5">
         <v>43893</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>33</v>
       </c>
     </row>

--- a/src/main/doc/2020年计划.xlsx
+++ b/src/main/doc/2020年计划.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A41D475-D1D8-4796-9BA5-A0F0523B6157}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B817A8B1-E408-44BF-ACDB-572F50DF45A9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -206,14 +206,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、俯卧撑3组每组15个
-2、深蹲3组每组30个
-3、拉筋10分钟
-4、学习华为devops第6天内容
-5、学习project 7~12节内容                                                      6、学习英语单词25个，复习100个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>星期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -286,6 +278,16 @@
 4、俯卧撑3组每组15个
 5、复习敏捷项目管理笔记（李建昊语音）
 6、复习49天项目管理提高训练营笔记（PM圈子小程序）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、俯卧撑3组每组15个
+2、深蹲3组每组30个
+3、拉筋10分钟
+4、学习华为devops第6天内容
+5、学习project 7~12节内容                                                      
+6、学习英语单词25个，复习100个
+7、学习光环国际知识分享</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1030,7 +1032,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1283,12 +1285,12 @@
       </c>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>43890</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D30" s="2"/>
     </row>
@@ -1335,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1355,7 +1357,7 @@
         <v>43891</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="85.5" x14ac:dyDescent="0.2">
@@ -1366,7 +1368,7 @@
         <v>43892</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="99.75" x14ac:dyDescent="0.2">
@@ -1377,7 +1379,7 @@
         <v>43893</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="99.75" x14ac:dyDescent="0.2">
@@ -1388,7 +1390,7 @@
         <v>43894</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="99.75" x14ac:dyDescent="0.2">
@@ -1399,7 +1401,7 @@
         <v>43895</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="99.75" x14ac:dyDescent="0.2">
@@ -1410,7 +1412,7 @@
         <v>43896</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="99.75" x14ac:dyDescent="0.2">
@@ -1421,7 +1423,7 @@
         <v>43897</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="99.75" x14ac:dyDescent="0.2">
@@ -1432,7 +1434,7 @@
         <v>43898</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">

--- a/src/main/doc/2020年计划.xlsx
+++ b/src/main/doc/2020年计划.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B817A8B1-E408-44BF-ACDB-572F50DF45A9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D224B6-BA7E-48C3-A926-AE322BE5EA5C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -284,10 +284,9 @@
     <t>1、俯卧撑3组每组15个
 2、深蹲3组每组30个
 3、拉筋10分钟
-4、学习华为devops第6天内容
+4、学习光环国际知识分享
 5、学习project 7~12节内容                                                      
-6、学习英语单词25个，复习100个
-7、学习光环国际知识分享</t>
+6、学习英语单词25个，复习100个</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1031,8 +1030,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1285,7 +1284,7 @@
       </c>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>43890</v>
       </c>

--- a/src/main/doc/2020年计划.xlsx
+++ b/src/main/doc/2020年计划.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D224B6-BA7E-48C3-A926-AE322BE5EA5C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95C8EC1-1E33-46B4-A395-0135D1F766FD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="3" r:id="rId1"/>
@@ -1030,7 +1030,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -1319,8 +1319,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/src/main/doc/2020年计划.xlsx
+++ b/src/main/doc/2020年计划.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95C8EC1-1E33-46B4-A395-0135D1F766FD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E24284-0E85-498F-AE2A-04042958152E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="3" r:id="rId1"/>
     <sheet name="2020-01" sheetId="1" r:id="rId2"/>
     <sheet name="2020-02" sheetId="2" r:id="rId3"/>
     <sheet name="2020-03" sheetId="4" r:id="rId4"/>
+    <sheet name="2020-04" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -289,6 +290,109 @@
 6、学习英语单词25个，复习100个</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>1、学习英语单词25个，复习100个
+2、深蹲3组每组30个
+3、拉筋10分钟
+4、俯卧撑3组每组15个
+5、复习敏捷项目管理笔记（李建昊语音）
+6、复习49天项目管理提高训练营笔记（PM圈子小程序）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复习指导原则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>复习目标和指导原则</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>目标：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. 5月31日前《考研数学复习全书》整本书学习一遍。
+2. 5月31日前《新东方考研英语直通车》第一阶段“预备阶段” 和第二阶段
+   “基础夯实课程” 说文解词及长难句结束
+3. 6月01日至6月30日，完成专业课网课及课本精度一遍。
+4. 6月01日至6月30日 完成英语基础阅读和基础写作网课
+5. 7月01日至7月31日 完成考研政治网课及课本的第一轮学习
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>指导原则：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. 英语1个多小时的网课周一到周五每天1节课，周六周日每天3节课。
+2. 《考研数学复习全书》周一到周五每天10页，周六周日每天40页
+3. 扇贝英语按计划背英语单词（多关注考研例句）
+4. 英语半个小时的网课周一到周五学习2~3个。 周六周日学习7个
+5. 9月后每天泛读一遍英文文章，中文转英文写2~3句话。
+6. 9月后每日写数学公式3~3个。
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 考研数学复习全书第1~10页
+2. 02_Passage 1 课文 + 词汇讲解.mp4
+3. 按计划背扇贝单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -297,7 +401,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-804]aaaa;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,16 +416,48 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -329,11 +465,106 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -348,6 +579,46 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1319,8 +1590,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1476,12 +1747,15 @@
         <v>43903</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>43904</v>
       </c>
       <c r="B15" s="5">
         <v>43904</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1625,4 +1899,609 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5429B0EC-AE74-46FA-8C68-B5DC2B9B9AF5}">
+  <dimension ref="A1:L33"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.375" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="38" customWidth="1"/>
+    <col min="4" max="4" width="13.375" customWidth="1"/>
+    <col min="5" max="5" width="11.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+    </row>
+    <row r="2" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10">
+        <v>43922</v>
+      </c>
+      <c r="B2" s="11">
+        <v>43922</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="17"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="10">
+        <v>43923</v>
+      </c>
+      <c r="B3" s="11">
+        <v>43923</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="20"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="10">
+        <v>43924</v>
+      </c>
+      <c r="B4" s="11">
+        <v>43924</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="20"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="10">
+        <v>43925</v>
+      </c>
+      <c r="B5" s="11">
+        <v>43925</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="20"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="10">
+        <v>43926</v>
+      </c>
+      <c r="B6" s="11">
+        <v>43926</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="20"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="10">
+        <v>43927</v>
+      </c>
+      <c r="B7" s="11">
+        <v>43927</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="20"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="10">
+        <v>43928</v>
+      </c>
+      <c r="B8" s="11">
+        <v>43928</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="20"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="10">
+        <v>43929</v>
+      </c>
+      <c r="B9" s="11">
+        <v>43929</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="20"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="10">
+        <v>43930</v>
+      </c>
+      <c r="B10" s="11">
+        <v>43930</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="20"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="10">
+        <v>43931</v>
+      </c>
+      <c r="B11" s="11">
+        <v>43931</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="20"/>
+    </row>
+    <row r="12" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="10">
+        <v>43932</v>
+      </c>
+      <c r="B12" s="11">
+        <v>43932</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="20"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="10">
+        <v>43933</v>
+      </c>
+      <c r="B13" s="11">
+        <v>43933</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="20"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="10">
+        <v>43934</v>
+      </c>
+      <c r="B14" s="11">
+        <v>43934</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="20"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="10">
+        <v>43935</v>
+      </c>
+      <c r="B15" s="11">
+        <v>43935</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="20"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="10">
+        <v>43936</v>
+      </c>
+      <c r="B16" s="11">
+        <v>43936</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="20"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="10">
+        <v>43937</v>
+      </c>
+      <c r="B17" s="11">
+        <v>43937</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="20"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="10">
+        <v>43938</v>
+      </c>
+      <c r="B18" s="11">
+        <v>43938</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="20"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="10">
+        <v>43939</v>
+      </c>
+      <c r="B19" s="11">
+        <v>43939</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="20"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="10">
+        <v>43940</v>
+      </c>
+      <c r="B20" s="11">
+        <v>43940</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="20"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="10">
+        <v>43941</v>
+      </c>
+      <c r="B21" s="11">
+        <v>43941</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="20"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="10">
+        <v>43942</v>
+      </c>
+      <c r="B22" s="11">
+        <v>43942</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="20"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="10">
+        <v>43943</v>
+      </c>
+      <c r="B23" s="11">
+        <v>43943</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="20"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="10">
+        <v>43944</v>
+      </c>
+      <c r="B24" s="11">
+        <v>43944</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="20"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="10">
+        <v>43945</v>
+      </c>
+      <c r="B25" s="11">
+        <v>43945</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="20"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="10">
+        <v>43946</v>
+      </c>
+      <c r="B26" s="11">
+        <v>43946</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="20"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="10">
+        <v>43947</v>
+      </c>
+      <c r="B27" s="11">
+        <v>43947</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="20"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="10">
+        <v>43948</v>
+      </c>
+      <c r="B28" s="11">
+        <v>43948</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="20"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="10">
+        <v>43949</v>
+      </c>
+      <c r="B29" s="11">
+        <v>43949</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="20"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="10">
+        <v>43950</v>
+      </c>
+      <c r="B30" s="11">
+        <v>43950</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="20"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="10">
+        <v>43951</v>
+      </c>
+      <c r="B31" s="11">
+        <v>43951</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="23"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="F2:L31"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/main/doc/2020年计划.xlsx
+++ b/src/main/doc/2020年计划.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E24284-0E85-498F-AE2A-04042958152E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E68AC3-7D73-4BA7-A5DB-01C5630998D4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -391,6 +391,25 @@
     <t>1. 考研数学复习全书第1~10页
 2. 02_Passage 1 课文 + 词汇讲解.mp4
 3. 按计划背扇贝单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学没有完成，英语已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 考研数学复习全书第11~20页
+2. 03_Passage 1 练习讲解.mp4                 
+3. 04_Passage 2 课文 + 词汇讲解.mp4
+4. 05_Passage 2 练习讲解.mp4
+5.  按计划背扇贝单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 考研数学复习全书第11~20页
+2. 06_Passage 3 课文 + 词汇讲解.mp4                 
+3. 07_Passage 3 练习讲解.mp4
+4. 按计划背扇贝单词</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -564,7 +583,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -578,9 +597,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -590,6 +606,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -621,6 +640,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -945,132 +965,132 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
     </row>
     <row r="17" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
     </row>
     <row r="18" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
     </row>
     <row r="19" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
     </row>
     <row r="20" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
     </row>
     <row r="21" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
     </row>
     <row r="22" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1906,7 +1926,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1919,19 +1939,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F1" s="14" t="s">
@@ -1945,15 +1965,15 @@
       <c r="L1" s="14"/>
     </row>
     <row r="2" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10">
+      <c r="A2" s="9">
         <v>43922</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="10">
         <v>43922</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="15" t="s">
         <v>41</v>
       </c>
@@ -1965,15 +1985,15 @@
       <c r="L2" s="17"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="10">
+      <c r="A3" s="9">
         <v>43923</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <v>43923</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
       <c r="F3" s="18"/>
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
@@ -1983,15 +2003,15 @@
       <c r="L3" s="20"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <v>43924</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="10">
         <v>43924</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="18"/>
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
@@ -2001,15 +2021,15 @@
       <c r="L4" s="20"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <v>43925</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>43925</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="18"/>
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
@@ -2019,15 +2039,15 @@
       <c r="L5" s="20"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <v>43926</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <v>43926</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="18"/>
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
@@ -2037,15 +2057,15 @@
       <c r="L6" s="20"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="10">
+      <c r="A7" s="9">
         <v>43927</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="10">
         <v>43927</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
       <c r="F7" s="18"/>
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
@@ -2055,15 +2075,15 @@
       <c r="L7" s="20"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="10">
+      <c r="A8" s="9">
         <v>43928</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <v>43928</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
       <c r="F8" s="18"/>
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
@@ -2073,15 +2093,15 @@
       <c r="L8" s="20"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="10">
+      <c r="A9" s="9">
         <v>43929</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="10">
         <v>43929</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
       <c r="F9" s="18"/>
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
@@ -2091,15 +2111,15 @@
       <c r="L9" s="20"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="10">
+      <c r="A10" s="9">
         <v>43930</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <v>43930</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
       <c r="F10" s="18"/>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
@@ -2109,15 +2129,15 @@
       <c r="L10" s="20"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="10">
+      <c r="A11" s="9">
         <v>43931</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="10">
         <v>43931</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="18"/>
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
@@ -2127,17 +2147,21 @@
       <c r="L11" s="20"/>
     </row>
     <row r="12" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="10">
+      <c r="A12" s="9">
         <v>43932</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="10">
         <v>43932</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+      <c r="D12" s="24">
+        <v>0.8</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="F12" s="18"/>
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
@@ -2146,16 +2170,22 @@
       <c r="K12" s="19"/>
       <c r="L12" s="20"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="10">
+    <row r="13" spans="1:12" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
         <v>43933</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="10">
         <v>43933</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
+      <c r="C13" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="24">
+        <v>0.8</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="F13" s="18"/>
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
@@ -2164,16 +2194,18 @@
       <c r="K13" s="19"/>
       <c r="L13" s="20"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="10">
+    <row r="14" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+      <c r="A14" s="9">
         <v>43934</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="10">
         <v>43934</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+      <c r="C14" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
       <c r="F14" s="18"/>
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
@@ -2183,15 +2215,15 @@
       <c r="L14" s="20"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="10">
+      <c r="A15" s="9">
         <v>43935</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="10">
         <v>43935</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
       <c r="F15" s="18"/>
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
@@ -2201,15 +2233,15 @@
       <c r="L15" s="20"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="10">
+      <c r="A16" s="9">
         <v>43936</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="10">
         <v>43936</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
       <c r="F16" s="18"/>
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
@@ -2219,15 +2251,15 @@
       <c r="L16" s="20"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="10">
+      <c r="A17" s="9">
         <v>43937</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="10">
         <v>43937</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
       <c r="F17" s="18"/>
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
@@ -2237,15 +2269,15 @@
       <c r="L17" s="20"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="10">
+      <c r="A18" s="9">
         <v>43938</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="10">
         <v>43938</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
       <c r="F18" s="18"/>
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
@@ -2255,15 +2287,15 @@
       <c r="L18" s="20"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="10">
+      <c r="A19" s="9">
         <v>43939</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="10">
         <v>43939</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
       <c r="F19" s="18"/>
       <c r="G19" s="19"/>
       <c r="H19" s="19"/>
@@ -2273,15 +2305,15 @@
       <c r="L19" s="20"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="10">
+      <c r="A20" s="9">
         <v>43940</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="10">
         <v>43940</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
       <c r="F20" s="18"/>
       <c r="G20" s="19"/>
       <c r="H20" s="19"/>
@@ -2291,15 +2323,15 @@
       <c r="L20" s="20"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="10">
+      <c r="A21" s="9">
         <v>43941</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="10">
         <v>43941</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
       <c r="F21" s="18"/>
       <c r="G21" s="19"/>
       <c r="H21" s="19"/>
@@ -2309,15 +2341,15 @@
       <c r="L21" s="20"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="10">
+      <c r="A22" s="9">
         <v>43942</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="10">
         <v>43942</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
       <c r="F22" s="18"/>
       <c r="G22" s="19"/>
       <c r="H22" s="19"/>
@@ -2327,15 +2359,15 @@
       <c r="L22" s="20"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="10">
+      <c r="A23" s="9">
         <v>43943</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="10">
         <v>43943</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
       <c r="F23" s="18"/>
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
@@ -2345,15 +2377,15 @@
       <c r="L23" s="20"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="10">
+      <c r="A24" s="9">
         <v>43944</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="10">
         <v>43944</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
       <c r="F24" s="18"/>
       <c r="G24" s="19"/>
       <c r="H24" s="19"/>
@@ -2363,15 +2395,15 @@
       <c r="L24" s="20"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="10">
+      <c r="A25" s="9">
         <v>43945</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="10">
         <v>43945</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
       <c r="F25" s="18"/>
       <c r="G25" s="19"/>
       <c r="H25" s="19"/>
@@ -2381,15 +2413,15 @@
       <c r="L25" s="20"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="10">
+      <c r="A26" s="9">
         <v>43946</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="10">
         <v>43946</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
       <c r="F26" s="18"/>
       <c r="G26" s="19"/>
       <c r="H26" s="19"/>
@@ -2399,15 +2431,15 @@
       <c r="L26" s="20"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="10">
+      <c r="A27" s="9">
         <v>43947</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B27" s="10">
         <v>43947</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
       <c r="F27" s="18"/>
       <c r="G27" s="19"/>
       <c r="H27" s="19"/>
@@ -2417,15 +2449,15 @@
       <c r="L27" s="20"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="10">
+      <c r="A28" s="9">
         <v>43948</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B28" s="10">
         <v>43948</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
       <c r="F28" s="18"/>
       <c r="G28" s="19"/>
       <c r="H28" s="19"/>
@@ -2435,15 +2467,15 @@
       <c r="L28" s="20"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="10">
+      <c r="A29" s="9">
         <v>43949</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B29" s="10">
         <v>43949</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
       <c r="F29" s="18"/>
       <c r="G29" s="19"/>
       <c r="H29" s="19"/>
@@ -2453,15 +2485,15 @@
       <c r="L29" s="20"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="10">
+      <c r="A30" s="9">
         <v>43950</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B30" s="10">
         <v>43950</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
       <c r="F30" s="18"/>
       <c r="G30" s="19"/>
       <c r="H30" s="19"/>
@@ -2471,15 +2503,15 @@
       <c r="L30" s="20"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="10">
+      <c r="A31" s="9">
         <v>43951</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B31" s="10">
         <v>43951</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
       <c r="F31" s="21"/>
       <c r="G31" s="22"/>
       <c r="H31" s="22"/>

--- a/src/main/doc/2020年计划.xlsx
+++ b/src/main/doc/2020年计划.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E68AC3-7D73-4BA7-A5DB-01C5630998D4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0131D39-0800-4C8A-8A05-0291064F54CA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -406,9 +406,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 考研数学复习全书第11~20页
+    <t>1. 考研数学复习全书第21~30页
 2. 06_Passage 3 课文 + 词汇讲解.mp4                 
 3. 07_Passage 3 练习讲解.mp4
+4. 按计划背扇贝单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 考研数学复习全书第31~40页
+2. 08_Passage 4 课文 + 词汇讲解.mp4                
+3. 09_Passage 4 练习讲解.mp4
+4. 按计划背扇贝单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 考研数学复习全书第41~50页
+2. 10_Passage 5 课文 + 词汇讲解.mp4               
+3. 11_Passage 5 练习讲解.mp4
 4. 按计划背扇贝单词</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -607,6 +621,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -640,7 +655,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -965,132 +979,132 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
     </row>
     <row r="17" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
     </row>
     <row r="18" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
     </row>
     <row r="19" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
     </row>
     <row r="20" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
     </row>
     <row r="21" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
     </row>
     <row r="22" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1925,8 +1939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5429B0EC-AE74-46FA-8C68-B5DC2B9B9AF5}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1954,15 +1968,15 @@
       <c r="E1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
     </row>
     <row r="2" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9">
@@ -1974,15 +1988,15 @@
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="18"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
@@ -1994,13 +2008,13 @@
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="20"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="21"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
@@ -2012,13 +2026,13 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="20"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="21"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
@@ -2030,13 +2044,13 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="20"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="21"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
@@ -2048,13 +2062,13 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="20"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="21"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
@@ -2066,13 +2080,13 @@
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="20"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="21"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
@@ -2084,13 +2098,13 @@
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="20"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="21"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
@@ -2102,13 +2116,13 @@
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="20"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="21"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
@@ -2120,13 +2134,13 @@
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="20"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="21"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
@@ -2138,13 +2152,13 @@
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="20"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="21"/>
     </row>
     <row r="12" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
@@ -2156,19 +2170,19 @@
       <c r="C12" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="13">
         <v>0.8</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="20"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="21"/>
     </row>
     <row r="13" spans="1:12" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
@@ -2180,19 +2194,19 @@
       <c r="C13" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D13" s="13">
         <v>0.8</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="20"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="21"/>
     </row>
     <row r="14" spans="1:12" ht="57" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
@@ -2204,51 +2218,63 @@
       <c r="C14" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="20"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D14" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="19"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="21"/>
+    </row>
+    <row r="15" spans="1:12" ht="57" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>43935</v>
       </c>
       <c r="B15" s="10">
         <v>43935</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="20"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="19"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="21"/>
+    </row>
+    <row r="16" spans="1:12" ht="57" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>43936</v>
       </c>
       <c r="B16" s="10">
         <v>43936</v>
       </c>
-      <c r="C16" s="7"/>
+      <c r="C16" s="8" t="s">
+        <v>47</v>
+      </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="20"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="21"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
@@ -2260,13 +2286,13 @@
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="20"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="21"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
@@ -2278,13 +2304,13 @@
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="20"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="21"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
@@ -2296,13 +2322,13 @@
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="20"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="21"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
@@ -2314,13 +2340,13 @@
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="20"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="21"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
@@ -2332,13 +2358,13 @@
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="20"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="21"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
@@ -2350,13 +2376,13 @@
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="20"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="21"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="9">
@@ -2368,13 +2394,13 @@
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="20"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="21"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="9">
@@ -2386,13 +2412,13 @@
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="20"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="21"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="9">
@@ -2404,13 +2430,13 @@
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="20"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="21"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="9">
@@ -2422,13 +2448,13 @@
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="20"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="21"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="9">
@@ -2440,13 +2466,13 @@
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="20"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="21"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="9">
@@ -2458,13 +2484,13 @@
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="20"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="21"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="9">
@@ -2476,13 +2502,13 @@
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="20"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="21"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="9">
@@ -2494,13 +2520,13 @@
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="20"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="21"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="9">
@@ -2512,13 +2538,13 @@
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="23"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="24"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>

--- a/src/main/doc/2020年计划.xlsx
+++ b/src/main/doc/2020年计划.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0131D39-0800-4C8A-8A05-0291064F54CA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298575CE-AFFA-459C-B4A4-CC1A9BB8FA3A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,6 +13,7 @@
     <sheet name="2020-02" sheetId="2" r:id="rId3"/>
     <sheet name="2020-03" sheetId="4" r:id="rId4"/>
     <sheet name="2020-04" sheetId="5" r:id="rId5"/>
+    <sheet name="2020-05" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="105">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -301,6 +302,24 @@
   </si>
   <si>
     <t>复习指导原则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学没有完成，英语已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 考研数学复习全书第51~60页
+2. 12_Passage 6 课文 + 词汇讲解.mp4               
+3. 13_Passage 6 练习讲解.mp4
+4. 按计划背扇贝单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 考研数学复习全书第61~70页
+2. 14_Passage 7 课文 + 词汇讲解.mp4              
+3. 15_Passage 7 练习讲解.mp4
+4. 按计划背扇贝单词</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -378,7 +397,7 @@
       </rPr>
       <t xml:space="preserve">
 1. 英语1个多小时的网课周一到周五每天1节课，周六周日每天3节课。
-2. 《考研数学复习全书》周一到周五每天10页，周六周日每天40页
+2. 《考研数学复习全书》周一到周五每天10页，周六周日每天30页
 3. 扇贝英语按计划背英语单词（多关注考研例句）
 4. 英语半个小时的网课周一到周五学习2~3个。 周六周日学习7个
 5. 9月后每天泛读一遍英文文章，中文转英文写2~3句话。
@@ -388,42 +407,352 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 考研数学复习全书第1~10页
+    <t>1. 考研数学复习全书第71~100页
+2. 16_Passage 8 课文+词汇讲解.mp4             
+3. 17_Passage 8 练习讲解.mp4
+4. 18_Passage 9 课文+词汇讲解.mp4
+5. 19_Passage 9 练习讲解.mp4
+6. 20_Passage 10 课文+词汇讲解.mp4
+7. 21_Passage 10 练习讲解.mp4
+8. 按计划背扇贝单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 扇贝复习100个单词学习25个新单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 扇贝复习100个单词学习25个新单词            
+2. 16_Passage 8 课文+词汇讲解.mp4             
+3. 17_Passage 8 练习讲解.mp4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. 考研数学复习全书第1~10页</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 2. 02_Passage 1 课文 + 词汇讲解.mp4
 3. 按计划背扇贝单词</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数学没有完成，英语已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 考研数学复习全书第11~20页
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. 考研数学复习全书第11~20页</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 2. 03_Passage 1 练习讲解.mp4                 
 3. 04_Passage 2 课文 + 词汇讲解.mp4
 4. 05_Passage 2 练习讲解.mp4
 5.  按计划背扇贝单词</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 考研数学复习全书第21~30页
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. 考研数学复习全书第21~30页</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 2. 06_Passage 3 课文 + 词汇讲解.mp4                 
 3. 07_Passage 3 练习讲解.mp4
 4. 按计划背扇贝单词</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 考研数学复习全书第31~40页
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. 考研数学复习全书第31~40页</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 2. 08_Passage 4 课文 + 词汇讲解.mp4                
 3. 09_Passage 4 练习讲解.mp4
 4. 按计划背扇贝单词</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 考研数学复习全书第41~50页
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. 考研数学复习全书第41~50页</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 2. 10_Passage 5 课文 + 词汇讲解.mp4               
 3. 11_Passage 5 练习讲解.mp4
 4. 按计划背扇贝单词</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-05-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-05-02</t>
+  </si>
+  <si>
+    <t>2020-05-03</t>
+  </si>
+  <si>
+    <t>2020-05-04</t>
+  </si>
+  <si>
+    <t>2020-05-05</t>
+  </si>
+  <si>
+    <t>2020-05-06</t>
+  </si>
+  <si>
+    <t>2020-05-07</t>
+  </si>
+  <si>
+    <t>2020-05-08</t>
+  </si>
+  <si>
+    <t>2020-05-09</t>
+  </si>
+  <si>
+    <t>2020-05-10</t>
+  </si>
+  <si>
+    <t>2020-05-11</t>
+  </si>
+  <si>
+    <t>2020-05-12</t>
+  </si>
+  <si>
+    <t>2020-05-13</t>
+  </si>
+  <si>
+    <t>2020-05-14</t>
+  </si>
+  <si>
+    <t>2020-05-15</t>
+  </si>
+  <si>
+    <t>2020-05-16</t>
+  </si>
+  <si>
+    <t>2020-05-17</t>
+  </si>
+  <si>
+    <t>2020-05-18</t>
+  </si>
+  <si>
+    <t>2020-05-19</t>
+  </si>
+  <si>
+    <t>2020-05-20</t>
+  </si>
+  <si>
+    <t>2020-05-21</t>
+  </si>
+  <si>
+    <t>2020-05-22</t>
+  </si>
+  <si>
+    <t>2020-05-23</t>
+  </si>
+  <si>
+    <t>2020-05-24</t>
+  </si>
+  <si>
+    <t>2020-05-25</t>
+  </si>
+  <si>
+    <t>2020-05-26</t>
+  </si>
+  <si>
+    <t>2020-05-27</t>
+  </si>
+  <si>
+    <t>2020-05-28</t>
+  </si>
+  <si>
+    <t>2020-05-29</t>
+  </si>
+  <si>
+    <t>2020-05-30</t>
+  </si>
+  <si>
+    <t>2020-05-31</t>
+  </si>
+  <si>
+    <t>复习目标和指导原则
+目标：
+1. 5月31日前《考研数学复习全书》整本书学习一遍。
+2. 5月31日前《新东方考研英语直通车》第一阶段“预备阶段” 和第二阶段
+   “基础夯实课程” 说文解词及长难句结束
+3. 6月01日至6月30日，完成专业课网课及课本精度一遍。
+4. 6月01日至6月30日 完成英语基础阅读和基础写作网课
+5. 7月01日至7月31日 完成考研政治网课及课本的第一轮学习
+指导原则：
+1. 英语1个多小时的网课周一到周五每天1节课，周六周日每天3节课。
+2. 《考研数学复习全书》周一到周五每天10页，周六周日每天30页
+3. 扇贝英语按计划背英语单词（多关注考研例句）
+4. 英语半个小时的网课周一到周五学习2~3个。 周六周日学习7个
+5. 9月后每天泛读一遍英文文章，中文转英文写2~3句话。
+6. 9月后每日写数学公式3~3个。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. spring boot 21~30节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. spring boot 10~20节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. spring boot 1~10节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. spring boot 31~43节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. spring boot 44~55节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. spring boot 55~60节
+2. spring cloud 1~10节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. spring boot 44~47节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. spring boot 48~55节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.sprint boot 64-67节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.sprintCloud 1-5节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.sprintCloud 6-10节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.sprintCloud 6-16节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.sprintCloud 17-24节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16、17、18已学完</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -434,7 +763,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-804]aaaa;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -470,6 +799,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -597,7 +934,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -622,6 +959,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -654,6 +999,33 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -979,132 +1351,132 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
     </row>
     <row r="17" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
     </row>
     <row r="18" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
     </row>
     <row r="19" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
     </row>
     <row r="20" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
     </row>
     <row r="21" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
     </row>
     <row r="22" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1937,22 +2309,26 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5429B0EC-AE74-46FA-8C68-B5DC2B9B9AF5}">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:L31"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2:M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.375" customWidth="1"/>
     <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="3" max="3" width="38" customWidth="1"/>
-    <col min="4" max="4" width="13.375" customWidth="1"/>
-    <col min="5" max="5" width="11.75" customWidth="1"/>
+    <col min="3" max="3" width="34.375" customWidth="1"/>
+    <col min="4" max="4" width="38" customWidth="1"/>
+    <col min="5" max="5" width="13.375" customWidth="1"/>
+    <col min="6" max="6" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1960,25 +2336,28 @@
         <v>29</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-    </row>
-    <row r="2" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+    </row>
+    <row r="2" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9">
         <v>43922</v>
       </c>
@@ -1988,17 +2367,18 @@
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
-      <c r="F2" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="18"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F2" s="7"/>
+      <c r="G2" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="22"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <v>43923</v>
       </c>
@@ -2008,15 +2388,16 @@
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="21"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F3" s="7"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="25"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>43924</v>
       </c>
@@ -2026,15 +2407,16 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="21"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F4" s="7"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="25"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>43925</v>
       </c>
@@ -2044,15 +2426,16 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="21"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F5" s="7"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="25"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>43926</v>
       </c>
@@ -2062,15 +2445,16 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="21"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F6" s="7"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="25"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>43927</v>
       </c>
@@ -2080,15 +2464,16 @@
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="21"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F7" s="7"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="25"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>43928</v>
       </c>
@@ -2098,15 +2483,16 @@
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="21"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F8" s="7"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="25"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>43929</v>
       </c>
@@ -2116,15 +2502,16 @@
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="21"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F9" s="7"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="25"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>43930</v>
       </c>
@@ -2134,15 +2521,16 @@
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="21"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F10" s="7"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="25"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>43931</v>
       </c>
@@ -2152,275 +2540,331 @@
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="21"/>
-    </row>
-    <row r="12" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="F11" s="7"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="25"/>
+    </row>
+    <row r="12" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>43932</v>
       </c>
       <c r="B12" s="10">
         <v>43932</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="13">
+      <c r="C12" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="13">
         <v>0.8</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="21"/>
-    </row>
-    <row r="13" spans="1:12" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="F12" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="23"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="25"/>
+    </row>
+    <row r="13" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>43933</v>
       </c>
       <c r="B13" s="10">
         <v>43933</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="13">
+      <c r="C13" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="13">
         <v>0.8</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="21"/>
-    </row>
-    <row r="14" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+      <c r="F13" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="23"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="25"/>
+    </row>
+    <row r="14" spans="1:13" ht="57" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>43934</v>
       </c>
       <c r="B14" s="10">
         <v>43934</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="13">
+      <c r="C14" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="13">
         <v>0.8</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="21"/>
-    </row>
-    <row r="15" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+      <c r="F14" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="23"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="25"/>
+    </row>
+    <row r="15" spans="1:13" ht="57" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>43935</v>
       </c>
       <c r="B15" s="10">
         <v>43935</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="13">
+      <c r="C15" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="13">
         <v>0.8</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="21"/>
-    </row>
-    <row r="16" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+      <c r="F15" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="23"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="25"/>
+    </row>
+    <row r="16" spans="1:13" ht="57" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>43936</v>
       </c>
       <c r="B16" s="10">
         <v>43936</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="21"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C16" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="23"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="25"/>
+    </row>
+    <row r="17" spans="1:13" ht="57" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>43937</v>
       </c>
       <c r="B17" s="10">
         <v>43937</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="21"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C17" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="23"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="25"/>
+    </row>
+    <row r="18" spans="1:13" ht="57" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>43938</v>
       </c>
       <c r="B18" s="10">
         <v>43938</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="21"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C18" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="23"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="25"/>
+    </row>
+    <row r="19" spans="1:13" ht="114" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>43939</v>
       </c>
       <c r="B19" s="10">
         <v>43939</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="21"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C19" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="13">
+        <v>0</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="23"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="25"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
         <v>43940</v>
       </c>
       <c r="B20" s="10">
         <v>43940</v>
       </c>
-      <c r="C20" s="7"/>
+      <c r="C20" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="21"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E20" s="13">
+        <v>1</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="25"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
         <v>43941</v>
       </c>
       <c r="B21" s="10">
         <v>43941</v>
       </c>
-      <c r="C21" s="7"/>
+      <c r="C21" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="21"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E21" s="13">
+        <v>1</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="25"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
         <v>43942</v>
       </c>
       <c r="B22" s="10">
         <v>43942</v>
       </c>
-      <c r="C22" s="7"/>
+      <c r="C22" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="21"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E22" s="13">
+        <v>1</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="25"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="9">
         <v>43943</v>
       </c>
       <c r="B23" s="10">
         <v>43943</v>
       </c>
-      <c r="C23" s="7"/>
+      <c r="C23" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="21"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E23" s="13">
+        <v>1</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="25"/>
+    </row>
+    <row r="24" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A24" s="9">
         <v>43944</v>
       </c>
       <c r="B24" s="10">
         <v>43944</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="21"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C24" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="13">
+        <v>1</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="25"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="9">
         <v>43945</v>
       </c>
@@ -2430,15 +2874,16 @@
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="21"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F25" s="7"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="25"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="9">
         <v>43946</v>
       </c>
@@ -2448,15 +2893,16 @@
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="21"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F26" s="7"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="25"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="9">
         <v>43947</v>
       </c>
@@ -2466,15 +2912,16 @@
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="21"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F27" s="7"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="25"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="9">
         <v>43948</v>
       </c>
@@ -2484,15 +2931,16 @@
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="21"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F28" s="7"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="25"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="9">
         <v>43949</v>
       </c>
@@ -2502,15 +2950,16 @@
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="21"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F29" s="7"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="25"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="9">
         <v>43950</v>
       </c>
@@ -2520,15 +2969,16 @@
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="21"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F30" s="7"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="25"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="9">
         <v>43951</v>
       </c>
@@ -2538,15 +2988,16 @@
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="24"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F31" s="7"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="28"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
     </row>
@@ -2555,8 +3006,654 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="F2:L31"/>
+    <mergeCell ref="G1:M1"/>
+    <mergeCell ref="G2:M31"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3ADAF6C-CC36-45F5-A668-0BE4E35A4738}">
+  <dimension ref="A1:M32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.375" style="15" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="15" customWidth="1"/>
+    <col min="3" max="3" width="25.125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="29.75" style="15" customWidth="1"/>
+    <col min="5" max="5" width="12" style="15" customWidth="1"/>
+    <col min="6" max="6" width="17.375" style="15" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="16"/>
+      <c r="G2" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="31"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" s="16"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="34"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="16"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="34"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="34"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="34"/>
+    </row>
+    <row r="7" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="34"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="34"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="34"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="34"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="34"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="34"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="34"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" s="16"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="34"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="34"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="34"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="34"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="34"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="34"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="34"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="34"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="34"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="34"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="34"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="34"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="34"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="34"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="34"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="34"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="34"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="34"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G1:M1"/>
+    <mergeCell ref="G2:M32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/doc/2020年计划.xlsx
+++ b/src/main/doc/2020年计划.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298575CE-AFFA-459C-B4A4-CC1A9BB8FA3A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F68D74-1905-4ABA-A918-F441D41A56B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2312,7 +2312,7 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="G2" sqref="G2:M31"/>

--- a/src/main/doc/2020年计划.xlsx
+++ b/src/main/doc/2020年计划.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66331B67-B310-4C92-BB5E-2BBDD2B69510}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8984EC-9235-451F-95EC-FBAE78C6B5AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1100,10 +1100,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1410,11 +1410,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp100.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp101.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp102.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1422,11 +1422,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp103.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp104.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp105.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1434,11 +1434,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp106.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp107.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp108.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1446,7 +1446,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp109.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1454,7 +1454,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp110.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp111.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1462,11 +1462,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp112.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp113.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp114.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1474,11 +1474,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp115.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp116.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp117.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1486,11 +1486,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp118.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp119.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1502,11 +1502,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp121.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp122.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp123.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1514,11 +1514,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp124.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp125.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp126.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1526,11 +1526,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp127.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp128.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp129.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1542,11 +1542,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp130.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp131.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp132.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1554,11 +1554,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp133.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp134.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp135.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1566,11 +1566,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp136.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp137.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp138.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1578,15 +1578,15 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp139.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp140.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp141.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1594,11 +1594,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp142.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp143.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp144.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1606,11 +1606,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp145.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp146.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp147.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1618,15 +1618,15 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp148.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp149.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp149.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
 <file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp150.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1634,11 +1634,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp151.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp152.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp153.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1646,7 +1646,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp154.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp155.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1662,7 +1662,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp158.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp159.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1674,11 +1674,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp160.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp161.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp162.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1686,11 +1686,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp163.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp164.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp165.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1698,11 +1698,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp166.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp167.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp168.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1710,15 +1710,15 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp169.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp170.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp171.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1726,11 +1726,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp172.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp173.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp174.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1738,11 +1738,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp175.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp176.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp177.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1750,15 +1750,15 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp178.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp179.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp179.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
 <file path=xl/ctrlProps/ctrlProp18.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp180.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1766,11 +1766,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp181.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp182.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp183.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1778,11 +1778,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp184.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp185.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp186.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1790,7 +1790,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp187.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp188.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1810,7 +1810,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp191.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp192.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1818,11 +1818,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp193.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp194.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp195.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1830,11 +1830,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp196.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp197.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp198.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1842,7 +1842,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp199.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1850,11 +1850,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp20.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp200.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp201.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1862,11 +1862,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp202.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp203.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp204.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1874,11 +1874,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp205.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp206.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp207.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1886,15 +1886,15 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp208.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp209.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp209.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
 <file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp210.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1902,11 +1902,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp211.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp212.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp213.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1914,11 +1914,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp214.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp215.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp216.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1926,11 +1926,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp217.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp218.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp219.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1942,11 +1942,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp220.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp221.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp222.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1954,11 +1954,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp223.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp224.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp225.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1966,11 +1966,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp226.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp227.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp228.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1978,15 +1978,15 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp229.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp230.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp231.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1994,11 +1994,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp232.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp233.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp234.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2006,11 +2006,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp235.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp236.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp237.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2018,15 +2018,15 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp238.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp239.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp239.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
 <file path=xl/ctrlProps/ctrlProp24.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp240.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2034,11 +2034,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp241.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp242.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp243.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2046,11 +2046,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp244.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp245.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp246.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2058,11 +2058,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp247.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp248.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp249.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2074,11 +2074,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp250.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp251.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp252.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2086,11 +2086,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp253.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp254.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp255.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2098,11 +2098,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp256.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp257.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp258.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2110,15 +2110,15 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp259.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp26.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp260.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp261.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2126,11 +2126,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp262.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp263.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp264.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2138,11 +2138,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp265.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp266.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp267.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2150,15 +2150,15 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp268.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp269.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp269.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
 <file path=xl/ctrlProps/ctrlProp27.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp270.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2166,11 +2166,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp271.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp272.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp273.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2178,11 +2178,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp274.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp275.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp276.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2190,14 +2190,6 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp277.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp278.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp279.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
@@ -2206,7 +2198,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp29.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2214,7 +2206,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp30.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp31.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2222,11 +2214,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp32.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp33.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp34.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2234,11 +2226,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp35.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp36.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp37.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2246,11 +2238,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp38.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp39.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2262,11 +2254,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp41.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp42.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp43.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2274,11 +2266,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp44.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp45.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp46.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2286,7 +2278,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp47.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp48.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2398,7 +2390,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp72.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp73.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2406,7 +2398,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp74.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp75.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2450,11 +2442,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp84.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp85.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp86.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2462,11 +2454,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp87.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp88.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp89.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2498,7 +2490,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp95.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp96.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2506,11 +2498,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp97.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp98.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp99.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2719,7 +2711,7 @@
                   <a14:compatExt spid="_x0000_s10241"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32933B05-5BBB-4AB7-A713-D26A32CAF9B8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000001280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2805,7 +2797,7 @@
                   <a14:compatExt spid="_x0000_s10242"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B76F8CFA-E348-46BD-A60A-30876C82701F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2891,7 +2883,7 @@
                   <a14:compatExt spid="_x0000_s10243"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9E373FA-64A5-477A-B360-0E44D3FC3C6B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2977,7 +2969,7 @@
                   <a14:compatExt spid="_x0000_s10244"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1CE6CFC-076C-4C5B-BB91-F2D03CB372A9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3045,13 +3037,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>123824</xdr:colOff>
+          <xdr:colOff>123825</xdr:colOff>
           <xdr:row>14</xdr:row>
           <xdr:rowOff>342900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>4514849</xdr:colOff>
+          <xdr:colOff>4514850</xdr:colOff>
           <xdr:row>14</xdr:row>
           <xdr:rowOff>609600</xdr:rowOff>
         </xdr:to>
@@ -3063,7 +3055,7 @@
                   <a14:compatExt spid="_x0000_s10245"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{796B24E6-A5AA-4FB0-93CF-A400A0A8DAC3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3149,7 +3141,7 @@
                   <a14:compatExt spid="_x0000_s10246"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{071917AD-0DF5-42E0-A920-7793340982CB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3217,13 +3209,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>123824</xdr:colOff>
+          <xdr:colOff>123825</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>5372099</xdr:colOff>
+          <xdr:colOff>5372100</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>371475</xdr:rowOff>
         </xdr:to>
@@ -3235,7 +3227,7 @@
                   <a14:compatExt spid="_x0000_s10247"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3327095F-6915-4B66-8044-08FA03B38EE9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000007280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3321,7 +3313,7 @@
                   <a14:compatExt spid="_x0000_s10250"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2672B36B-2260-40A4-A0FF-A80641F6A623}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000A280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3389,13 +3381,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>123825</xdr:colOff>
+          <xdr:colOff>123824</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>790575</xdr:colOff>
+          <xdr:colOff>5162549</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>371475</xdr:rowOff>
         </xdr:to>
@@ -3407,7 +3399,7 @@
                   <a14:compatExt spid="_x0000_s10253"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA509066-ECAB-4ED5-B8FB-9B82FE94DBB2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000D280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3476,24 +3468,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>17</xdr:row>
-          <xdr:rowOff>342900</xdr:rowOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>17</xdr:row>
-          <xdr:rowOff>609600</xdr:rowOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>371475</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10254" name="Check Box 14" hidden="1">
+            <xdr:cNvPr id="10256" name="Check Box 16" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10254"/>
+                  <a14:compatExt spid="_x0000_s10256"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CB7BA26-4391-4B4B-9F30-B4A9F02003B9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000010280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3546,7 +3538,7 @@
                   <a:latin typeface="Microsoft YaHei UI"/>
                   <a:ea typeface="Microsoft YaHei UI"/>
                 </a:rPr>
-                <a:t>复选框 1</a:t>
+                <a:t>地方复选框 1</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -3562,24 +3554,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>17</xdr:row>
-          <xdr:rowOff>571500</xdr:rowOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>17</xdr:row>
-          <xdr:rowOff>838200</xdr:rowOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>609600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10255" name="Check Box 15" hidden="1">
+            <xdr:cNvPr id="10257" name="Check Box 17" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10255"/>
+                  <a14:compatExt spid="_x0000_s10257"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C8EE2EC-0DB7-49EC-8611-05738EAEA1E8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000011280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3649,23 +3641,23 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>571500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>371475</xdr:rowOff>
+          <xdr:rowOff>838200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10256" name="Check Box 16" hidden="1">
+            <xdr:cNvPr id="10258" name="Check Box 18" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10256"/>
+                  <a14:compatExt spid="_x0000_s10258"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06321D13-29CA-4A41-A6E7-232D66AD57F6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000012280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3734,24 +3726,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>18</xdr:row>
-          <xdr:rowOff>342900</xdr:rowOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>18</xdr:row>
-          <xdr:rowOff>609600</xdr:rowOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>371475</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10257" name="Check Box 17" hidden="1">
+            <xdr:cNvPr id="10259" name="Check Box 19" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10257"/>
+                  <a14:compatExt spid="_x0000_s10259"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09016E2B-5E04-4F53-8F65-4A4ED37273D7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000013280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3820,24 +3812,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>18</xdr:row>
-          <xdr:rowOff>571500</xdr:rowOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>18</xdr:row>
-          <xdr:rowOff>838200</xdr:rowOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>609600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10258" name="Check Box 18" hidden="1">
+            <xdr:cNvPr id="10260" name="Check Box 20" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10258"/>
+                  <a14:compatExt spid="_x0000_s10260"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06B4F666-2834-465E-8210-C3F16B305AA9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000014280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3907,23 +3899,23 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>571500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>371475</xdr:rowOff>
+          <xdr:rowOff>838200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10259" name="Check Box 19" hidden="1">
+            <xdr:cNvPr id="10261" name="Check Box 21" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10259"/>
+                  <a14:compatExt spid="_x0000_s10261"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BE0B421-BFD6-4F72-91BF-BB78FFB12B91}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000015280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3992,24 +3984,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>19</xdr:row>
-          <xdr:rowOff>342900</xdr:rowOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>19</xdr:row>
-          <xdr:rowOff>609600</xdr:rowOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>371475</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10260" name="Check Box 20" hidden="1">
+            <xdr:cNvPr id="10262" name="Check Box 22" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10260"/>
+                  <a14:compatExt spid="_x0000_s10262"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F79A092-3322-4258-9F9D-BED3EF530EEE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000016280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4078,24 +4070,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>19</xdr:row>
-          <xdr:rowOff>571500</xdr:rowOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>19</xdr:row>
-          <xdr:rowOff>838200</xdr:rowOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>609600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10261" name="Check Box 21" hidden="1">
+            <xdr:cNvPr id="10263" name="Check Box 23" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10261"/>
+                  <a14:compatExt spid="_x0000_s10263"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83C06844-9CF6-41E7-9DFE-20029EC7220D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000017280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4165,23 +4157,23 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>571500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>371475</xdr:rowOff>
+          <xdr:rowOff>838200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10262" name="Check Box 22" hidden="1">
+            <xdr:cNvPr id="10264" name="Check Box 24" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10262"/>
+                  <a14:compatExt spid="_x0000_s10264"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E240520-4C64-4F69-9CF5-19C4A1576C29}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000018280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4250,24 +4242,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>20</xdr:row>
-          <xdr:rowOff>342900</xdr:rowOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>20</xdr:row>
-          <xdr:rowOff>609600</xdr:rowOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>371475</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10263" name="Check Box 23" hidden="1">
+            <xdr:cNvPr id="10265" name="Check Box 25" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10263"/>
+                  <a14:compatExt spid="_x0000_s10265"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B551683-8A0A-44ED-B0AB-F910076588B7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000019280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4336,24 +4328,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>20</xdr:row>
-          <xdr:rowOff>571500</xdr:rowOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>20</xdr:row>
-          <xdr:rowOff>838200</xdr:rowOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>609600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10264" name="Check Box 24" hidden="1">
+            <xdr:cNvPr id="10266" name="Check Box 26" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10264"/>
+                  <a14:compatExt spid="_x0000_s10266"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7973DDA-4E4C-4545-9924-9CAACF8247C8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001A280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4423,23 +4415,23 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>571500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>371475</xdr:rowOff>
+          <xdr:rowOff>838200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10265" name="Check Box 25" hidden="1">
+            <xdr:cNvPr id="10267" name="Check Box 27" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10265"/>
+                  <a14:compatExt spid="_x0000_s10267"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6302A5FB-1184-4144-BE91-DA04F6740236}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001B280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4508,24 +4500,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>21</xdr:row>
-          <xdr:rowOff>342900</xdr:rowOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>21</xdr:row>
-          <xdr:rowOff>609600</xdr:rowOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>371475</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10266" name="Check Box 26" hidden="1">
+            <xdr:cNvPr id="10268" name="Check Box 28" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10266"/>
+                  <a14:compatExt spid="_x0000_s10268"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05503375-F510-4AF8-A9D5-E6FA43CBCC17}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001C280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4594,24 +4586,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>21</xdr:row>
-          <xdr:rowOff>571500</xdr:rowOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>21</xdr:row>
-          <xdr:rowOff>838200</xdr:rowOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>609600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10267" name="Check Box 27" hidden="1">
+            <xdr:cNvPr id="10269" name="Check Box 29" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10267"/>
+                  <a14:compatExt spid="_x0000_s10269"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55023628-402D-44AC-B881-98346E603437}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001D280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4681,23 +4673,23 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>571500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>371475</xdr:rowOff>
+          <xdr:rowOff>838200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10268" name="Check Box 28" hidden="1">
+            <xdr:cNvPr id="10270" name="Check Box 30" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10268"/>
+                  <a14:compatExt spid="_x0000_s10270"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81CA391A-4869-47ED-AE14-9130B5610938}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001E280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4766,24 +4758,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>22</xdr:row>
-          <xdr:rowOff>342900</xdr:rowOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>22</xdr:row>
-          <xdr:rowOff>609600</xdr:rowOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>371475</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10269" name="Check Box 29" hidden="1">
+            <xdr:cNvPr id="10271" name="Check Box 31" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10269"/>
+                  <a14:compatExt spid="_x0000_s10271"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA547659-6E0B-45A9-8DAE-B11C912CE5F9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001F280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4852,24 +4844,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>22</xdr:row>
-          <xdr:rowOff>571500</xdr:rowOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>22</xdr:row>
-          <xdr:rowOff>838200</xdr:rowOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>609600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10270" name="Check Box 30" hidden="1">
+            <xdr:cNvPr id="10272" name="Check Box 32" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10270"/>
+                  <a14:compatExt spid="_x0000_s10272"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB0C4412-22D0-4CBB-94B1-05F4E00F9365}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000020280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4939,23 +4931,23 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>571500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>371475</xdr:rowOff>
+          <xdr:rowOff>838200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10271" name="Check Box 31" hidden="1">
+            <xdr:cNvPr id="10273" name="Check Box 33" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10271"/>
+                  <a14:compatExt spid="_x0000_s10273"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38E8FA30-A033-4F92-B4A9-96F94C05391A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000021280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5024,24 +5016,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>23</xdr:row>
-          <xdr:rowOff>342900</xdr:rowOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>23</xdr:row>
-          <xdr:rowOff>609600</xdr:rowOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>371475</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10272" name="Check Box 32" hidden="1">
+            <xdr:cNvPr id="10274" name="Check Box 34" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10272"/>
+                  <a14:compatExt spid="_x0000_s10274"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEB94181-8FA7-417A-A0B3-6DACC5AA3490}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000022280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5110,24 +5102,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>23</xdr:row>
-          <xdr:rowOff>571500</xdr:rowOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>23</xdr:row>
-          <xdr:rowOff>838200</xdr:rowOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>609600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10273" name="Check Box 33" hidden="1">
+            <xdr:cNvPr id="10275" name="Check Box 35" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10273"/>
+                  <a14:compatExt spid="_x0000_s10275"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD736DEB-6E30-4D79-BB23-88E507E935A7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000023280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5197,23 +5189,23 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>571500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>371475</xdr:rowOff>
+          <xdr:rowOff>838200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10274" name="Check Box 34" hidden="1">
+            <xdr:cNvPr id="10276" name="Check Box 36" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10274"/>
+                  <a14:compatExt spid="_x0000_s10276"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B7196CD-D9DD-42B2-A777-2EF5451AA058}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000024280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5282,24 +5274,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>24</xdr:row>
-          <xdr:rowOff>342900</xdr:rowOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>24</xdr:row>
-          <xdr:rowOff>609600</xdr:rowOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>371475</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10275" name="Check Box 35" hidden="1">
+            <xdr:cNvPr id="10277" name="Check Box 37" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10275"/>
+                  <a14:compatExt spid="_x0000_s10277"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{190AE3DC-D1D8-4934-AAE5-392B5EF9C933}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000025280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5368,24 +5360,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>24</xdr:row>
-          <xdr:rowOff>571500</xdr:rowOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>24</xdr:row>
-          <xdr:rowOff>838200</xdr:rowOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>609600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10276" name="Check Box 36" hidden="1">
+            <xdr:cNvPr id="10278" name="Check Box 38" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10276"/>
+                  <a14:compatExt spid="_x0000_s10278"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0D3057A-6859-4E50-A0BF-9E4F95D55997}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000026280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5455,23 +5447,23 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
           <xdr:row>25</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>571500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
           <xdr:row>25</xdr:row>
-          <xdr:rowOff>371475</xdr:rowOff>
+          <xdr:rowOff>838200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10277" name="Check Box 37" hidden="1">
+            <xdr:cNvPr id="10279" name="Check Box 39" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10277"/>
+                  <a14:compatExt spid="_x0000_s10279"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44CC4759-1685-4EF0-A18E-000906EBE9CD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000027280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5540,24 +5532,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>25</xdr:row>
-          <xdr:rowOff>342900</xdr:rowOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>25</xdr:row>
-          <xdr:rowOff>609600</xdr:rowOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>371475</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10278" name="Check Box 38" hidden="1">
+            <xdr:cNvPr id="10280" name="Check Box 40" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10278"/>
+                  <a14:compatExt spid="_x0000_s10280"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87CB2913-E850-4E51-B3EE-13AB9A958A78}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000028280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5626,24 +5618,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>25</xdr:row>
-          <xdr:rowOff>571500</xdr:rowOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>25</xdr:row>
-          <xdr:rowOff>838200</xdr:rowOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>609600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10279" name="Check Box 39" hidden="1">
+            <xdr:cNvPr id="10281" name="Check Box 41" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10279"/>
+                  <a14:compatExt spid="_x0000_s10281"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{789274F2-8DE0-4B15-9B53-E44509B03ED8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000029280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5713,23 +5705,23 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>571500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>371475</xdr:rowOff>
+          <xdr:rowOff>838200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10280" name="Check Box 40" hidden="1">
+            <xdr:cNvPr id="10282" name="Check Box 42" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10280"/>
+                  <a14:compatExt spid="_x0000_s10282"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F54C57D9-DAF4-4AC5-BC8E-6BA1D0BF7A42}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002A280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5798,24 +5790,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>26</xdr:row>
-          <xdr:rowOff>342900</xdr:rowOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>26</xdr:row>
-          <xdr:rowOff>609600</xdr:rowOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>371475</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10281" name="Check Box 41" hidden="1">
+            <xdr:cNvPr id="10283" name="Check Box 43" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10281"/>
+                  <a14:compatExt spid="_x0000_s10283"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C0150A5-014B-4E50-862A-992F130DEA7D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002B280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5884,24 +5876,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>26</xdr:row>
-          <xdr:rowOff>571500</xdr:rowOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>26</xdr:row>
-          <xdr:rowOff>838200</xdr:rowOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>609600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10282" name="Check Box 42" hidden="1">
+            <xdr:cNvPr id="10284" name="Check Box 44" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10282"/>
+                  <a14:compatExt spid="_x0000_s10284"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27B19716-3F5E-4591-A3F9-69227573D663}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002C280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5971,23 +5963,23 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>571500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>371475</xdr:rowOff>
+          <xdr:rowOff>838200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10283" name="Check Box 43" hidden="1">
+            <xdr:cNvPr id="10285" name="Check Box 45" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10283"/>
+                  <a14:compatExt spid="_x0000_s10285"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{539BD19B-4158-431E-9086-A20395EA7402}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002D280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6056,24 +6048,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>27</xdr:row>
-          <xdr:rowOff>342900</xdr:rowOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>27</xdr:row>
-          <xdr:rowOff>609600</xdr:rowOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>371475</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10284" name="Check Box 44" hidden="1">
+            <xdr:cNvPr id="10286" name="Check Box 46" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10284"/>
+                  <a14:compatExt spid="_x0000_s10286"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80983D9B-DBB7-4769-90C1-133510F986EE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002E280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6142,24 +6134,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>27</xdr:row>
-          <xdr:rowOff>571500</xdr:rowOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>27</xdr:row>
-          <xdr:rowOff>838200</xdr:rowOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>609600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10285" name="Check Box 45" hidden="1">
+            <xdr:cNvPr id="10287" name="Check Box 47" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10285"/>
+                  <a14:compatExt spid="_x0000_s10287"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45C54E9B-519F-4CBD-A7F2-005691D49B5A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002F280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6229,23 +6221,23 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>571500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>371475</xdr:rowOff>
+          <xdr:rowOff>838200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10286" name="Check Box 46" hidden="1">
+            <xdr:cNvPr id="10288" name="Check Box 48" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10286"/>
+                  <a14:compatExt spid="_x0000_s10288"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21365464-5718-4BF1-8BA5-06252CD3A4A0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000030280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6314,24 +6306,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>28</xdr:row>
-          <xdr:rowOff>342900</xdr:rowOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>28</xdr:row>
-          <xdr:rowOff>609600</xdr:rowOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>371475</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10287" name="Check Box 47" hidden="1">
+            <xdr:cNvPr id="10289" name="Check Box 49" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10287"/>
+                  <a14:compatExt spid="_x0000_s10289"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3442863-2235-4FF5-B0D7-63478E694AB8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000031280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6400,24 +6392,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>28</xdr:row>
-          <xdr:rowOff>571500</xdr:rowOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>28</xdr:row>
-          <xdr:rowOff>838200</xdr:rowOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>609600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10288" name="Check Box 48" hidden="1">
+            <xdr:cNvPr id="10290" name="Check Box 50" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10288"/>
+                  <a14:compatExt spid="_x0000_s10290"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCF9ADE3-8B64-4C79-9508-AA3458D5AC1C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000032280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6487,23 +6479,23 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
           <xdr:row>29</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>571500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
           <xdr:row>29</xdr:row>
-          <xdr:rowOff>371475</xdr:rowOff>
+          <xdr:rowOff>838200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10289" name="Check Box 49" hidden="1">
+            <xdr:cNvPr id="10291" name="Check Box 51" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10289"/>
+                  <a14:compatExt spid="_x0000_s10291"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{512DD164-7B25-4E9F-AFAC-B175BA763E90}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000033280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6572,24 +6564,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>29</xdr:row>
-          <xdr:rowOff>342900</xdr:rowOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>29</xdr:row>
-          <xdr:rowOff>609600</xdr:rowOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>371475</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10290" name="Check Box 50" hidden="1">
+            <xdr:cNvPr id="10292" name="Check Box 52" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10290"/>
+                  <a14:compatExt spid="_x0000_s10292"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{286617B5-48F0-4ADA-AA26-CE8DE5276005}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000034280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6658,24 +6650,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>29</xdr:row>
-          <xdr:rowOff>571500</xdr:rowOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>29</xdr:row>
-          <xdr:rowOff>838200</xdr:rowOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>609600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10291" name="Check Box 51" hidden="1">
+            <xdr:cNvPr id="10293" name="Check Box 53" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10291"/>
+                  <a14:compatExt spid="_x0000_s10293"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62C26478-B0D9-4CB3-AA50-CA7E259F4FFE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000035280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6745,23 +6737,23 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>571500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>371475</xdr:rowOff>
+          <xdr:rowOff>838200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10292" name="Check Box 52" hidden="1">
+            <xdr:cNvPr id="10294" name="Check Box 54" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10292"/>
+                  <a14:compatExt spid="_x0000_s10294"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4993B54-D658-4FFE-B699-1900932EBA4A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000036280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6830,24 +6822,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>342900</xdr:rowOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>609600</xdr:rowOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>371475</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10293" name="Check Box 53" hidden="1">
+            <xdr:cNvPr id="10295" name="Check Box 55" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10293"/>
+                  <a14:compatExt spid="_x0000_s10295"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4FFF9EC-CD30-4E62-BBDC-5F3BAE68DA5B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000037280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6916,24 +6908,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>571500</xdr:rowOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>838200</xdr:rowOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>609600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10294" name="Check Box 54" hidden="1">
+            <xdr:cNvPr id="10296" name="Check Box 56" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10294"/>
+                  <a14:compatExt spid="_x0000_s10296"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96B8186C-EBF9-445F-AB2E-5EF36FA0B10C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000038280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7003,23 +6995,23 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>571500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>371475</xdr:rowOff>
+          <xdr:rowOff>838200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10295" name="Check Box 55" hidden="1">
+            <xdr:cNvPr id="10297" name="Check Box 57" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10295"/>
+                  <a14:compatExt spid="_x0000_s10297"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18B76B4B-A051-4F24-83B8-AE098B671387}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000039280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7088,24 +7080,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>342900</xdr:rowOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>609600</xdr:rowOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>371475</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10296" name="Check Box 56" hidden="1">
+            <xdr:cNvPr id="10298" name="Check Box 58" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10296"/>
+                  <a14:compatExt spid="_x0000_s10298"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9A9EDC0-6C98-408F-9BDB-C85D07E14A9B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00003A280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7174,24 +7166,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>571500</xdr:rowOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>838200</xdr:rowOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>609600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10297" name="Check Box 57" hidden="1">
+            <xdr:cNvPr id="10299" name="Check Box 59" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10297"/>
+                  <a14:compatExt spid="_x0000_s10299"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45F731FA-B15E-4C81-9405-E10022F36F37}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00003B280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7261,23 +7253,23 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>571500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>371475</xdr:rowOff>
+          <xdr:rowOff>838200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10298" name="Check Box 58" hidden="1">
+            <xdr:cNvPr id="10300" name="Check Box 60" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10298"/>
+                  <a14:compatExt spid="_x0000_s10300"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{474F4058-E3A8-4D7C-B64A-1FDA6D6901DE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00003C280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7346,24 +7338,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>342900</xdr:rowOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>609600</xdr:rowOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>371475</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10299" name="Check Box 59" hidden="1">
+            <xdr:cNvPr id="10301" name="Check Box 61" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10299"/>
+                  <a14:compatExt spid="_x0000_s10301"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8087B270-B5C2-4669-B577-0A242A2328E9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00003D280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7432,24 +7424,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>571500</xdr:rowOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>838200</xdr:rowOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>609600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10300" name="Check Box 60" hidden="1">
+            <xdr:cNvPr id="10302" name="Check Box 62" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10300"/>
+                  <a14:compatExt spid="_x0000_s10302"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5D4AA51-DE68-47BA-82A8-FF1E8F1AC70D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00003E280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7519,23 +7511,23 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>571500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>371475</xdr:rowOff>
+          <xdr:rowOff>838200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10301" name="Check Box 61" hidden="1">
+            <xdr:cNvPr id="10303" name="Check Box 63" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10301"/>
+                  <a14:compatExt spid="_x0000_s10303"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94737A40-97E8-46E2-9E7D-B53E5A786406}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00003F280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7604,24 +7596,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>342900</xdr:rowOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>609600</xdr:rowOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>371475</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10302" name="Check Box 62" hidden="1">
+            <xdr:cNvPr id="10304" name="Check Box 64" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10302"/>
+                  <a14:compatExt spid="_x0000_s10304"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B4E8FD0-DCC5-4EA8-AAC9-CA39CCCDB0AE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000040280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7690,24 +7682,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>571500</xdr:rowOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>838200</xdr:rowOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>609600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10303" name="Check Box 63" hidden="1">
+            <xdr:cNvPr id="10305" name="Check Box 65" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10303"/>
+                  <a14:compatExt spid="_x0000_s10305"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68DF3E85-434F-46BD-818A-E09358943369}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000041280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7777,23 +7769,23 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>571500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>371475</xdr:rowOff>
+          <xdr:rowOff>838200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10304" name="Check Box 64" hidden="1">
+            <xdr:cNvPr id="10306" name="Check Box 66" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10304"/>
+                  <a14:compatExt spid="_x0000_s10306"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80C7DE9C-681B-4707-939C-4AD61B9822C8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000042280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7862,24 +7854,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>342900</xdr:rowOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>609600</xdr:rowOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>371475</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10305" name="Check Box 65" hidden="1">
+            <xdr:cNvPr id="10307" name="Check Box 67" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10305"/>
+                  <a14:compatExt spid="_x0000_s10307"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C36442EA-30FD-4B3A-AA36-E5EC422A7BEE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000043280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7948,24 +7940,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>571500</xdr:rowOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>838200</xdr:rowOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>609600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10306" name="Check Box 66" hidden="1">
+            <xdr:cNvPr id="10308" name="Check Box 68" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10306"/>
+                  <a14:compatExt spid="_x0000_s10308"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1417BFED-B7A8-454B-BAB9-DD59450FFBB1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000044280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8035,23 +8027,23 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>571500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>371475</xdr:rowOff>
+          <xdr:rowOff>838200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10307" name="Check Box 67" hidden="1">
+            <xdr:cNvPr id="10309" name="Check Box 69" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10307"/>
+                  <a14:compatExt spid="_x0000_s10309"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F41B64D7-4D18-4229-BA9C-1B5110AFA419}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000045280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8120,24 +8112,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>342900</xdr:rowOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>609600</xdr:rowOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>371475</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10308" name="Check Box 68" hidden="1">
+            <xdr:cNvPr id="10310" name="Check Box 70" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10308"/>
+                  <a14:compatExt spid="_x0000_s10310"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68A4F028-3B5F-4DDC-AB1F-FBC4B28BD109}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000046280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8206,24 +8198,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>571500</xdr:rowOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>838200</xdr:rowOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>609600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10309" name="Check Box 69" hidden="1">
+            <xdr:cNvPr id="10311" name="Check Box 71" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10309"/>
+                  <a14:compatExt spid="_x0000_s10311"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28B97FC2-4293-48C5-84D3-766C4568202B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000047280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8293,23 +8285,23 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>571500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>371475</xdr:rowOff>
+          <xdr:rowOff>838200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10310" name="Check Box 70" hidden="1">
+            <xdr:cNvPr id="10312" name="Check Box 72" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10310"/>
+                  <a14:compatExt spid="_x0000_s10312"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF8E3749-4B35-4B80-B773-E2E3D9BEA07D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000048280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8378,24 +8370,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>342900</xdr:rowOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>609600</xdr:rowOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>371475</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10311" name="Check Box 71" hidden="1">
+            <xdr:cNvPr id="10313" name="Check Box 73" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10311"/>
+                  <a14:compatExt spid="_x0000_s10313"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA80B437-327E-4990-A783-8245B3143745}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000049280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8464,24 +8456,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>571500</xdr:rowOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>838200</xdr:rowOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>609600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10312" name="Check Box 72" hidden="1">
+            <xdr:cNvPr id="10314" name="Check Box 74" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10312"/>
+                  <a14:compatExt spid="_x0000_s10314"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8558AF8-139D-4069-9AC1-7675E834FEB8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00004A280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8551,23 +8543,23 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>571500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>371475</xdr:rowOff>
+          <xdr:rowOff>838200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10313" name="Check Box 73" hidden="1">
+            <xdr:cNvPr id="10315" name="Check Box 75" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10313"/>
+                  <a14:compatExt spid="_x0000_s10315"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EBB4B7B-DB2B-435C-AD89-296D2FBBF0EA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00004B280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8636,24 +8628,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>342900</xdr:rowOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>609600</xdr:rowOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>371475</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10314" name="Check Box 74" hidden="1">
+            <xdr:cNvPr id="10316" name="Check Box 76" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10314"/>
+                  <a14:compatExt spid="_x0000_s10316"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A78FBE5D-5390-4928-A1B5-B1FE92EF8165}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00004C280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8722,24 +8714,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>571500</xdr:rowOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>838200</xdr:rowOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>609600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10315" name="Check Box 75" hidden="1">
+            <xdr:cNvPr id="10317" name="Check Box 77" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10315"/>
+                  <a14:compatExt spid="_x0000_s10317"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E332503-E97A-4414-9BB1-0DFCB7BDEEAE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00004D280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8809,23 +8801,23 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>571500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>371475</xdr:rowOff>
+          <xdr:rowOff>838200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10316" name="Check Box 76" hidden="1">
+            <xdr:cNvPr id="10318" name="Check Box 78" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10316"/>
+                  <a14:compatExt spid="_x0000_s10318"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CF64FA5-3F9A-4F62-96C0-DC1254B3D5F8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00004E280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8894,24 +8886,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>342900</xdr:rowOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>609600</xdr:rowOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>371475</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10317" name="Check Box 77" hidden="1">
+            <xdr:cNvPr id="10319" name="Check Box 79" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10317"/>
+                  <a14:compatExt spid="_x0000_s10319"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3626ED58-15AD-4866-9943-78EF892CDB1C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00004F280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8980,24 +8972,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>571500</xdr:rowOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>838200</xdr:rowOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>609600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10318" name="Check Box 78" hidden="1">
+            <xdr:cNvPr id="10320" name="Check Box 80" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10318"/>
+                  <a14:compatExt spid="_x0000_s10320"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72B9EA2A-0F20-40B0-80C8-C5C5E5340E66}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000050280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9067,23 +9059,23 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>571500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>371475</xdr:rowOff>
+          <xdr:rowOff>838200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10319" name="Check Box 79" hidden="1">
+            <xdr:cNvPr id="10321" name="Check Box 81" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10319"/>
+                  <a14:compatExt spid="_x0000_s10321"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BB0016A-8557-4916-8406-F110938BBAC9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000051280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9152,24 +9144,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>342900</xdr:rowOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>609600</xdr:rowOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>371475</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10320" name="Check Box 80" hidden="1">
+            <xdr:cNvPr id="10322" name="Check Box 82" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10320"/>
+                  <a14:compatExt spid="_x0000_s10322"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AFBD12E-247F-4129-8778-085BDEA1C966}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000052280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9238,24 +9230,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>571500</xdr:rowOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>838200</xdr:rowOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>609600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10321" name="Check Box 81" hidden="1">
+            <xdr:cNvPr id="10323" name="Check Box 83" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10321"/>
+                  <a14:compatExt spid="_x0000_s10323"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95AC00C4-FF78-4965-8DD2-AA2872C883B0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000053280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9325,23 +9317,23 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>571500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>371475</xdr:rowOff>
+          <xdr:rowOff>838200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10322" name="Check Box 82" hidden="1">
+            <xdr:cNvPr id="10324" name="Check Box 84" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10322"/>
+                  <a14:compatExt spid="_x0000_s10324"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1731F5E2-746C-4E83-BFF8-300FDA333B6B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000054280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9410,24 +9402,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>342900</xdr:rowOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>609600</xdr:rowOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>371475</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10323" name="Check Box 83" hidden="1">
+            <xdr:cNvPr id="10325" name="Check Box 85" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10323"/>
+                  <a14:compatExt spid="_x0000_s10325"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F75F55D-5D0F-4C89-8B32-3F7FC9EF6DF2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000055280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9496,24 +9488,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>571500</xdr:rowOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>838200</xdr:rowOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>609600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10324" name="Check Box 84" hidden="1">
+            <xdr:cNvPr id="10326" name="Check Box 86" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10324"/>
+                  <a14:compatExt spid="_x0000_s10326"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E994FD9-28D7-4AB2-B799-99D9CE5AC7B5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000056280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9583,23 +9575,23 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>571500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>371475</xdr:rowOff>
+          <xdr:rowOff>838200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10325" name="Check Box 85" hidden="1">
+            <xdr:cNvPr id="10327" name="Check Box 87" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10325"/>
+                  <a14:compatExt spid="_x0000_s10327"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89249E1D-56CA-46DF-9DC9-233504D25FBB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000057280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9668,24 +9660,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>342900</xdr:rowOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>800100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>609600</xdr:rowOff>
+          <xdr:colOff>3571875</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>1066800</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10326" name="Check Box 86" hidden="1">
+            <xdr:cNvPr id="10328" name="Check Box 88" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10326"/>
+                  <a14:compatExt spid="_x0000_s10328"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C8039C6-9C69-40C9-B58F-4884FDF2A232}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000058280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9738,7 +9730,7 @@
                   <a:latin typeface="Microsoft YaHei UI"/>
                   <a:ea typeface="Microsoft YaHei UI"/>
                 </a:rPr>
-                <a:t>复选框 1</a:t>
+                <a:t>第07课-时间函数：不翻日历，几个函数帮你搞定日期计算</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -9754,24 +9746,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>571500</xdr:rowOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>1028700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>838200</xdr:rowOff>
+          <xdr:colOff>3571875</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>1295400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10327" name="Check Box 87" hidden="1">
+            <xdr:cNvPr id="10329" name="Check Box 89" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10327"/>
+                  <a14:compatExt spid="_x0000_s10329"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44A6F3CE-778A-412D-83DE-AE3395A52FC9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000059280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9824,7 +9816,7 @@
                   <a:latin typeface="Microsoft YaHei UI"/>
                   <a:ea typeface="Microsoft YaHei UI"/>
                 </a:rPr>
-                <a:t>复选框 1</a:t>
+                <a:t>第08课-数据舍入：函数中的四舍五入问题，帮你快速判断何时取大值或小值</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -9841,23 +9833,23 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>800100</xdr:rowOff>
+          <xdr:rowOff>1266825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>3571875</xdr:colOff>
+          <xdr:colOff>4733925</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>1066800</xdr:rowOff>
+          <xdr:rowOff>1533525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10328" name="Check Box 88" hidden="1">
+            <xdr:cNvPr id="10330" name="Check Box 90" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10328"/>
+                  <a14:compatExt spid="_x0000_s10330"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47210FA2-094D-4612-8D1B-4DD8027592B3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00005A280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9910,7 +9902,7 @@
                   <a:latin typeface="Microsoft YaHei UI"/>
                   <a:ea typeface="Microsoft YaHei UI"/>
                 </a:rPr>
-                <a:t>第07课-时间函数：不翻日历，几个函数帮你搞定日期计算</a:t>
+                <a:t>第09课-数据匹配（1）：函数中的战斗机【VLOOKUP】,一节教会你全部套路</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -9927,23 +9919,23 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>1028700</xdr:rowOff>
+          <xdr:rowOff>1466850</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>3571875</xdr:colOff>
+          <xdr:colOff>4733925</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>1295400</xdr:rowOff>
+          <xdr:rowOff>1733550</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10329" name="Check Box 89" hidden="1">
+            <xdr:cNvPr id="10331" name="Check Box 91" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10329"/>
+                  <a14:compatExt spid="_x0000_s10331"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D37FD42E-1B5D-4CB7-A9EA-F2BE75DE9AE4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00005B280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9996,7 +9988,7 @@
                   <a:latin typeface="Microsoft YaHei UI"/>
                   <a:ea typeface="Microsoft YaHei UI"/>
                 </a:rPr>
-                <a:t>第08课-数据舍入：函数中的四舍五入问题，帮你快速判断何时取大值或小值</a:t>
+                <a:t>回家少看手机，多陪伴家人</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -10012,24 +10004,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>1266825</xdr:rowOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>4733925</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>1533525</xdr:rowOff>
+          <xdr:colOff>4514850</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>609600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10330" name="Check Box 90" hidden="1">
+            <xdr:cNvPr id="10332" name="Check Box 92" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10330"/>
+                  <a14:compatExt spid="_x0000_s10332"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15E380D3-DBA5-4B81-887D-1A551B34B673}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00005C280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10082,7 +10074,7 @@
                   <a:latin typeface="Microsoft YaHei UI"/>
                   <a:ea typeface="Microsoft YaHei UI"/>
                 </a:rPr>
-                <a:t>第09课-数据匹配（1）：函数中的战斗机【VLOOKUP】,一节教会你全部套路</a:t>
+                <a:t>光环国际微信公众号：1篇文章</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -10097,25 +10089,25 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>1466850</xdr:rowOff>
+          <xdr:colOff>114300</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>561975</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>4733925</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>1733550</xdr:rowOff>
+          <xdr:colOff>5362575</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>828675</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10331" name="Check Box 91" hidden="1">
+            <xdr:cNvPr id="10333" name="Check Box 93" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10331"/>
+                  <a14:compatExt spid="_x0000_s10333"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8F27EA9-625D-4A7B-B8E3-10A8D53A12CA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00005D280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10168,7 +10160,7 @@
                   <a:latin typeface="Microsoft YaHei UI"/>
                   <a:ea typeface="Microsoft YaHei UI"/>
                 </a:rPr>
-                <a:t>回家少看手机，多陪伴家人</a:t>
+                <a:t>第11课-逻辑函数：思维混乱的人，不知道的结构化思考的N个秘密-练习</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -10184,24 +10176,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>15</xdr:row>
-          <xdr:rowOff>342900</xdr:rowOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>781050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>4514850</xdr:colOff>
-          <xdr:row>15</xdr:row>
-          <xdr:rowOff>609600</xdr:rowOff>
+          <xdr:colOff>4733925</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>1047750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10332" name="Check Box 92" hidden="1">
+            <xdr:cNvPr id="10334" name="Check Box 94" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10332"/>
+                  <a14:compatExt spid="_x0000_s10334"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D4756F3-D6E1-4667-A75E-6A9A7A8E0556}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00005E280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10254,7 +10246,7 @@
                   <a:latin typeface="Microsoft YaHei UI"/>
                   <a:ea typeface="Microsoft YaHei UI"/>
                 </a:rPr>
-                <a:t>光环国际微信公众号：1篇文章</a:t>
+                <a:t>回家少看手机，多陪伴家人</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -10269,25 +10261,25 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>114300</xdr:colOff>
+          <xdr:colOff>123825</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>561975</xdr:rowOff>
+          <xdr:rowOff>781050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>5362575</xdr:colOff>
-          <xdr:row>15</xdr:row>
-          <xdr:rowOff>828675</xdr:rowOff>
+          <xdr:colOff>4733925</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10333" name="Check Box 93" hidden="1">
+            <xdr:cNvPr id="10335" name="Check Box 95" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10333"/>
+                  <a14:compatExt spid="_x0000_s10335"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D120A0A-45BD-4471-BE3F-E5F2E3DAB32D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00005F280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10340,7 +10332,7 @@
                   <a:latin typeface="Microsoft YaHei UI"/>
                   <a:ea typeface="Microsoft YaHei UI"/>
                 </a:rPr>
-                <a:t>第11课-逻辑函数：思维混乱的人，不知道的结构化思考的N个秘密-练习</a:t>
+                <a:t>回家少看手机，多陪伴家人</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -10356,24 +10348,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>14</xdr:row>
-          <xdr:rowOff>781050</xdr:rowOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>4733925</xdr:colOff>
-          <xdr:row>14</xdr:row>
-          <xdr:rowOff>1047750</xdr:rowOff>
+          <xdr:colOff>4514850</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>609600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10334" name="Check Box 94" hidden="1">
+            <xdr:cNvPr id="10336" name="Check Box 96" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10334"/>
+                  <a14:compatExt spid="_x0000_s10336"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6E66EEA-34B0-479B-A38C-6778E5401C56}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000060280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10426,7 +10418,7 @@
                   <a:latin typeface="Microsoft YaHei UI"/>
                   <a:ea typeface="Microsoft YaHei UI"/>
                 </a:rPr>
-                <a:t>回家少看手机，多陪伴家人</a:t>
+                <a:t>光环国际微信公众号：1篇文章</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -10442,24 +10434,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>15</xdr:row>
-          <xdr:rowOff>781050</xdr:rowOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>533400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>4733925</xdr:colOff>
+          <xdr:colOff>5210175</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>800100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10335" name="Check Box 95" hidden="1">
+            <xdr:cNvPr id="10337" name="Check Box 97" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10335"/>
+                  <a14:compatExt spid="_x0000_s10337"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76236E59-EE7F-4BB3-881B-8F278811BFB8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000061280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10512,178 +10504,6 @@
                   <a:latin typeface="Microsoft YaHei UI"/>
                   <a:ea typeface="Microsoft YaHei UI"/>
                 </a:rPr>
-                <a:t>回家少看手机，多陪伴家人</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>16</xdr:row>
-          <xdr:rowOff>342900</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>4514850</xdr:colOff>
-          <xdr:row>16</xdr:row>
-          <xdr:rowOff>609600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="10336" name="Check Box 96" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10336"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{628BF71E-571C-43E9-A6CD-99DE2DDAD0F5}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI"/>
-                  <a:ea typeface="Microsoft YaHei UI"/>
-                </a:rPr>
-                <a:t>光环国际微信公众号：1篇文章</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>16</xdr:row>
-          <xdr:rowOff>533400</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>5210175</xdr:colOff>
-          <xdr:row>16</xdr:row>
-          <xdr:rowOff>800100</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="10337" name="Check Box 97" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10337"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B01BFEE0-DA16-45A2-9BE8-3354F3146AF4}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI"/>
-                  <a:ea typeface="Microsoft YaHei UI"/>
-                </a:rPr>
                 <a:t>第12课-数组计算：简化操作省时间，一步完成10组运算！-练习</a:t>
               </a:r>
             </a:p>
@@ -10717,7 +10537,7 @@
                   <a14:compatExt spid="_x0000_s10338"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{079CA76A-13DE-42C5-9507-F48EA46E5610}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000062280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -26535,10 +26355,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{26514955-D1E5-4DFF-8ADF-96B202B28012}" name="表2_452" displayName="表2_452" ref="A1:D30" totalsRowShown="0">
   <autoFilter ref="A1:D30" xr:uid="{3C57377A-613A-4DD6-B112-BAFAC28C68F3}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{E0528003-B4BA-4BAC-8F84-4AB407FD748C}" name="日期" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{B64A279B-64FA-4963-8436-5E933787CB83}" name="星期" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{3A55B92E-A2AE-4FA5-B28A-F52A244D1A97}" name="任务描述" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{7C3F8912-AB26-4FE4-A029-9FFDE84E784A}" name="备注" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{E0528003-B4BA-4BAC-8F84-4AB407FD748C}" name="日期" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{B64A279B-64FA-4963-8436-5E933787CB83}" name="星期" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{3A55B92E-A2AE-4FA5-B28A-F52A244D1A97}" name="任务描述" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{7C3F8912-AB26-4FE4-A029-9FFDE84E784A}" name="备注" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -26548,10 +26368,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{310DF65C-9D80-4F13-A2D4-A417DF719BAB}" name="表2_4" displayName="表2_4" ref="A1:D32" totalsRowShown="0">
   <autoFilter ref="A1:D32" xr:uid="{3C57377A-613A-4DD6-B112-BAFAC28C68F3}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{50A8F478-FA6D-43F6-B991-39F4C0D4C34C}" name="日期" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{27D2CCF0-17A9-43ED-9345-EA1295E3158D}" name="星期" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{0A63BE66-12B6-4C1E-9D2B-ABAC105D56D9}" name="任务描述" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{EB36E049-04E1-4254-9555-31E345D39097}" name="备注" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{50A8F478-FA6D-43F6-B991-39F4C0D4C34C}" name="日期" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{27D2CCF0-17A9-43ED-9345-EA1295E3158D}" name="星期" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{0A63BE66-12B6-4C1E-9D2B-ABAC105D56D9}" name="任务描述" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{EB36E049-04E1-4254-9555-31E345D39097}" name="备注" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -26561,10 +26381,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{142D4B7A-921D-42D2-A4E3-60E0C422546A}" name="表2_45" displayName="表2_45" ref="A1:D30" totalsRowShown="0">
   <autoFilter ref="A1:D30" xr:uid="{3C57377A-613A-4DD6-B112-BAFAC28C68F3}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{5BC6E8D1-9A57-4B35-A72B-6DCA7062243A}" name="日期" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{5691E677-976A-4367-A6FE-E44F2FBEED87}" name="星期" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{68A0F57B-9376-449A-9A15-E8ABD378BCE8}" name="任务描述" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{A55A6C73-CFA6-4C7D-A329-BF687AD81C69}" name="备注" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{5BC6E8D1-9A57-4B35-A72B-6DCA7062243A}" name="日期" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{5691E677-976A-4367-A6FE-E44F2FBEED87}" name="星期" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{68A0F57B-9376-449A-9A15-E8ABD378BCE8}" name="任务描述" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{A55A6C73-CFA6-4C7D-A329-BF687AD81C69}" name="备注" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -26836,8 +26656,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -29245,7 +29065,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E2" sqref="E2:E30"/>
     </sheetView>
   </sheetViews>
@@ -29281,7 +29101,7 @@
       </c>
       <c r="C2" s="20"/>
       <c r="D2" s="20"/>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="43" t="s">
         <v>108</v>
       </c>
     </row>
@@ -29294,7 +29114,7 @@
       </c>
       <c r="C3" s="20"/>
       <c r="D3" s="20"/>
-      <c r="E3" s="43"/>
+      <c r="E3" s="44"/>
     </row>
     <row r="4" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21">
@@ -29305,7 +29125,7 @@
       </c>
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
-      <c r="E4" s="43"/>
+      <c r="E4" s="44"/>
     </row>
     <row r="5" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21">
@@ -29316,7 +29136,7 @@
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="20"/>
-      <c r="E5" s="43"/>
+      <c r="E5" s="44"/>
     </row>
     <row r="6" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21">
@@ -29327,7 +29147,7 @@
       </c>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
-      <c r="E6" s="43"/>
+      <c r="E6" s="44"/>
     </row>
     <row r="7" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="21">
@@ -29338,7 +29158,7 @@
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
-      <c r="E7" s="43"/>
+      <c r="E7" s="44"/>
     </row>
     <row r="8" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="21">
@@ -29349,7 +29169,7 @@
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
-      <c r="E8" s="43"/>
+      <c r="E8" s="44"/>
     </row>
     <row r="9" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="21">
@@ -29360,7 +29180,7 @@
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
-      <c r="E9" s="43"/>
+      <c r="E9" s="44"/>
     </row>
     <row r="10" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="21">
@@ -29371,7 +29191,7 @@
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
-      <c r="E10" s="43"/>
+      <c r="E10" s="44"/>
     </row>
     <row r="11" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="21">
@@ -29382,7 +29202,7 @@
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
-      <c r="E11" s="43"/>
+      <c r="E11" s="44"/>
     </row>
     <row r="12" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="21">
@@ -29393,7 +29213,7 @@
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
-      <c r="E12" s="43"/>
+      <c r="E12" s="44"/>
     </row>
     <row r="13" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="21">
@@ -29404,7 +29224,7 @@
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
-      <c r="E13" s="43"/>
+      <c r="E13" s="44"/>
     </row>
     <row r="14" spans="1:5" ht="137.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="21">
@@ -29417,7 +29237,7 @@
       <c r="D14" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="E14" s="43"/>
+      <c r="E14" s="44"/>
     </row>
     <row r="15" spans="1:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="21">
@@ -29430,7 +29250,7 @@
       <c r="D15" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="E15" s="43"/>
+      <c r="E15" s="44"/>
     </row>
     <row r="16" spans="1:5" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="21">
@@ -29441,7 +29261,7 @@
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
-      <c r="E16" s="43"/>
+      <c r="E16" s="44"/>
     </row>
     <row r="17" spans="1:5" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="21">
@@ -29452,7 +29272,7 @@
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
-      <c r="E17" s="43"/>
+      <c r="E17" s="44"/>
     </row>
     <row r="18" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="21">
@@ -29463,7 +29283,7 @@
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
-      <c r="E18" s="43"/>
+      <c r="E18" s="44"/>
     </row>
     <row r="19" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="21">
@@ -29474,7 +29294,7 @@
       </c>
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
-      <c r="E19" s="43"/>
+      <c r="E19" s="44"/>
     </row>
     <row r="20" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21">
@@ -29485,7 +29305,7 @@
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
-      <c r="E20" s="43"/>
+      <c r="E20" s="44"/>
     </row>
     <row r="21" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21">
@@ -29496,7 +29316,7 @@
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
-      <c r="E21" s="43"/>
+      <c r="E21" s="44"/>
     </row>
     <row r="22" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="21">
@@ -29507,7 +29327,7 @@
       </c>
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
-      <c r="E22" s="43"/>
+      <c r="E22" s="44"/>
     </row>
     <row r="23" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="21">
@@ -29518,7 +29338,7 @@
       </c>
       <c r="C23" s="20"/>
       <c r="D23" s="20"/>
-      <c r="E23" s="43"/>
+      <c r="E23" s="44"/>
     </row>
     <row r="24" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="21">
@@ -29529,7 +29349,7 @@
       </c>
       <c r="C24" s="20"/>
       <c r="D24" s="20"/>
-      <c r="E24" s="43"/>
+      <c r="E24" s="44"/>
     </row>
     <row r="25" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="21">
@@ -29540,7 +29360,7 @@
       </c>
       <c r="C25" s="20"/>
       <c r="D25" s="20"/>
-      <c r="E25" s="43"/>
+      <c r="E25" s="44"/>
     </row>
     <row r="26" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="21">
@@ -29551,7 +29371,7 @@
       </c>
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
-      <c r="E26" s="43"/>
+      <c r="E26" s="44"/>
     </row>
     <row r="27" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="21">
@@ -29562,7 +29382,7 @@
       </c>
       <c r="C27" s="20"/>
       <c r="D27" s="20"/>
-      <c r="E27" s="43"/>
+      <c r="E27" s="44"/>
     </row>
     <row r="28" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="21">
@@ -29573,7 +29393,7 @@
       </c>
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
-      <c r="E28" s="43"/>
+      <c r="E28" s="44"/>
     </row>
     <row r="29" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="21">
@@ -29584,7 +29404,7 @@
       </c>
       <c r="C29" s="20"/>
       <c r="D29" s="20"/>
-      <c r="E29" s="43"/>
+      <c r="E29" s="44"/>
     </row>
     <row r="30" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="21">
@@ -29595,7 +29415,7 @@
       </c>
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
-      <c r="E30" s="43"/>
+      <c r="E30" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -29798,7 +29618,7 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>790575</xdr:colOff>
+                    <xdr:colOff>5162550</xdr:colOff>
                     <xdr:row>17</xdr:row>
                     <xdr:rowOff>371475</xdr:rowOff>
                   </to>
@@ -29809,51 +29629,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10254" r:id="rId13" name="Check Box 14">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>123825</xdr:colOff>
-                    <xdr:row>17</xdr:row>
-                    <xdr:rowOff>342900</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>790575</xdr:colOff>
-                    <xdr:row>17</xdr:row>
-                    <xdr:rowOff>609600</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="10255" r:id="rId14" name="Check Box 15">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>123825</xdr:colOff>
-                    <xdr:row>17</xdr:row>
-                    <xdr:rowOff>571500</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>790575</xdr:colOff>
-                    <xdr:row>17</xdr:row>
-                    <xdr:rowOff>838200</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="10256" r:id="rId15" name="Check Box 16">
+            <control shapeId="10256" r:id="rId13" name="Check Box 16">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -29875,7 +29651,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10257" r:id="rId16" name="Check Box 17">
+            <control shapeId="10257" r:id="rId14" name="Check Box 17">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -29897,7 +29673,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10258" r:id="rId17" name="Check Box 18">
+            <control shapeId="10258" r:id="rId15" name="Check Box 18">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -29919,7 +29695,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10259" r:id="rId18" name="Check Box 19">
+            <control shapeId="10259" r:id="rId16" name="Check Box 19">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -29941,7 +29717,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10260" r:id="rId19" name="Check Box 20">
+            <control shapeId="10260" r:id="rId17" name="Check Box 20">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -29963,7 +29739,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10261" r:id="rId20" name="Check Box 21">
+            <control shapeId="10261" r:id="rId18" name="Check Box 21">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -29985,7 +29761,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10262" r:id="rId21" name="Check Box 22">
+            <control shapeId="10262" r:id="rId19" name="Check Box 22">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30007,7 +29783,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10263" r:id="rId22" name="Check Box 23">
+            <control shapeId="10263" r:id="rId20" name="Check Box 23">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30029,7 +29805,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10264" r:id="rId23" name="Check Box 24">
+            <control shapeId="10264" r:id="rId21" name="Check Box 24">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30051,7 +29827,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10265" r:id="rId24" name="Check Box 25">
+            <control shapeId="10265" r:id="rId22" name="Check Box 25">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30073,7 +29849,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10266" r:id="rId25" name="Check Box 26">
+            <control shapeId="10266" r:id="rId23" name="Check Box 26">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30095,7 +29871,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10267" r:id="rId26" name="Check Box 27">
+            <control shapeId="10267" r:id="rId24" name="Check Box 27">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30117,7 +29893,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10268" r:id="rId27" name="Check Box 28">
+            <control shapeId="10268" r:id="rId25" name="Check Box 28">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30139,7 +29915,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10269" r:id="rId28" name="Check Box 29">
+            <control shapeId="10269" r:id="rId26" name="Check Box 29">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30161,7 +29937,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10270" r:id="rId29" name="Check Box 30">
+            <control shapeId="10270" r:id="rId27" name="Check Box 30">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30183,7 +29959,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10271" r:id="rId30" name="Check Box 31">
+            <control shapeId="10271" r:id="rId28" name="Check Box 31">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30205,7 +29981,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10272" r:id="rId31" name="Check Box 32">
+            <control shapeId="10272" r:id="rId29" name="Check Box 32">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30227,7 +30003,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10273" r:id="rId32" name="Check Box 33">
+            <control shapeId="10273" r:id="rId30" name="Check Box 33">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30249,7 +30025,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10274" r:id="rId33" name="Check Box 34">
+            <control shapeId="10274" r:id="rId31" name="Check Box 34">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30271,7 +30047,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10275" r:id="rId34" name="Check Box 35">
+            <control shapeId="10275" r:id="rId32" name="Check Box 35">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30293,7 +30069,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10276" r:id="rId35" name="Check Box 36">
+            <control shapeId="10276" r:id="rId33" name="Check Box 36">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30315,7 +30091,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10277" r:id="rId36" name="Check Box 37">
+            <control shapeId="10277" r:id="rId34" name="Check Box 37">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30337,7 +30113,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10278" r:id="rId37" name="Check Box 38">
+            <control shapeId="10278" r:id="rId35" name="Check Box 38">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30359,7 +30135,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10279" r:id="rId38" name="Check Box 39">
+            <control shapeId="10279" r:id="rId36" name="Check Box 39">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30381,7 +30157,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10280" r:id="rId39" name="Check Box 40">
+            <control shapeId="10280" r:id="rId37" name="Check Box 40">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30403,7 +30179,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10281" r:id="rId40" name="Check Box 41">
+            <control shapeId="10281" r:id="rId38" name="Check Box 41">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30425,7 +30201,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10282" r:id="rId41" name="Check Box 42">
+            <control shapeId="10282" r:id="rId39" name="Check Box 42">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30447,7 +30223,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10283" r:id="rId42" name="Check Box 43">
+            <control shapeId="10283" r:id="rId40" name="Check Box 43">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30469,7 +30245,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10284" r:id="rId43" name="Check Box 44">
+            <control shapeId="10284" r:id="rId41" name="Check Box 44">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30491,7 +30267,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10285" r:id="rId44" name="Check Box 45">
+            <control shapeId="10285" r:id="rId42" name="Check Box 45">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30513,7 +30289,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10286" r:id="rId45" name="Check Box 46">
+            <control shapeId="10286" r:id="rId43" name="Check Box 46">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30535,7 +30311,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10287" r:id="rId46" name="Check Box 47">
+            <control shapeId="10287" r:id="rId44" name="Check Box 47">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30557,7 +30333,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10288" r:id="rId47" name="Check Box 48">
+            <control shapeId="10288" r:id="rId45" name="Check Box 48">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30579,7 +30355,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10289" r:id="rId48" name="Check Box 49">
+            <control shapeId="10289" r:id="rId46" name="Check Box 49">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30601,7 +30377,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10290" r:id="rId49" name="Check Box 50">
+            <control shapeId="10290" r:id="rId47" name="Check Box 50">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30623,7 +30399,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10291" r:id="rId50" name="Check Box 51">
+            <control shapeId="10291" r:id="rId48" name="Check Box 51">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30645,7 +30421,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10292" r:id="rId51" name="Check Box 52">
+            <control shapeId="10292" r:id="rId49" name="Check Box 52">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30667,7 +30443,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10293" r:id="rId52" name="Check Box 53">
+            <control shapeId="10293" r:id="rId50" name="Check Box 53">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30689,7 +30465,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10294" r:id="rId53" name="Check Box 54">
+            <control shapeId="10294" r:id="rId51" name="Check Box 54">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30711,7 +30487,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10295" r:id="rId54" name="Check Box 55">
+            <control shapeId="10295" r:id="rId52" name="Check Box 55">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30733,7 +30509,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10296" r:id="rId55" name="Check Box 56">
+            <control shapeId="10296" r:id="rId53" name="Check Box 56">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30755,7 +30531,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10297" r:id="rId56" name="Check Box 57">
+            <control shapeId="10297" r:id="rId54" name="Check Box 57">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30777,7 +30553,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10298" r:id="rId57" name="Check Box 58">
+            <control shapeId="10298" r:id="rId55" name="Check Box 58">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30799,7 +30575,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10299" r:id="rId58" name="Check Box 59">
+            <control shapeId="10299" r:id="rId56" name="Check Box 59">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30821,7 +30597,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10300" r:id="rId59" name="Check Box 60">
+            <control shapeId="10300" r:id="rId57" name="Check Box 60">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30843,7 +30619,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10301" r:id="rId60" name="Check Box 61">
+            <control shapeId="10301" r:id="rId58" name="Check Box 61">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30865,7 +30641,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10302" r:id="rId61" name="Check Box 62">
+            <control shapeId="10302" r:id="rId59" name="Check Box 62">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30887,7 +30663,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10303" r:id="rId62" name="Check Box 63">
+            <control shapeId="10303" r:id="rId60" name="Check Box 63">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30909,7 +30685,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10304" r:id="rId63" name="Check Box 64">
+            <control shapeId="10304" r:id="rId61" name="Check Box 64">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30931,7 +30707,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10305" r:id="rId64" name="Check Box 65">
+            <control shapeId="10305" r:id="rId62" name="Check Box 65">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30953,7 +30729,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10306" r:id="rId65" name="Check Box 66">
+            <control shapeId="10306" r:id="rId63" name="Check Box 66">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30975,7 +30751,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10307" r:id="rId66" name="Check Box 67">
+            <control shapeId="10307" r:id="rId64" name="Check Box 67">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30997,7 +30773,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10308" r:id="rId67" name="Check Box 68">
+            <control shapeId="10308" r:id="rId65" name="Check Box 68">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -31019,7 +30795,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10309" r:id="rId68" name="Check Box 69">
+            <control shapeId="10309" r:id="rId66" name="Check Box 69">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -31041,7 +30817,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10310" r:id="rId69" name="Check Box 70">
+            <control shapeId="10310" r:id="rId67" name="Check Box 70">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -31063,7 +30839,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10311" r:id="rId70" name="Check Box 71">
+            <control shapeId="10311" r:id="rId68" name="Check Box 71">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -31085,7 +30861,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10312" r:id="rId71" name="Check Box 72">
+            <control shapeId="10312" r:id="rId69" name="Check Box 72">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -31107,7 +30883,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10313" r:id="rId72" name="Check Box 73">
+            <control shapeId="10313" r:id="rId70" name="Check Box 73">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -31129,7 +30905,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10314" r:id="rId73" name="Check Box 74">
+            <control shapeId="10314" r:id="rId71" name="Check Box 74">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -31151,7 +30927,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10315" r:id="rId74" name="Check Box 75">
+            <control shapeId="10315" r:id="rId72" name="Check Box 75">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -31173,7 +30949,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10316" r:id="rId75" name="Check Box 76">
+            <control shapeId="10316" r:id="rId73" name="Check Box 76">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -31195,7 +30971,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10317" r:id="rId76" name="Check Box 77">
+            <control shapeId="10317" r:id="rId74" name="Check Box 77">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -31217,7 +30993,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10318" r:id="rId77" name="Check Box 78">
+            <control shapeId="10318" r:id="rId75" name="Check Box 78">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -31239,7 +31015,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10319" r:id="rId78" name="Check Box 79">
+            <control shapeId="10319" r:id="rId76" name="Check Box 79">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -31261,7 +31037,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10320" r:id="rId79" name="Check Box 80">
+            <control shapeId="10320" r:id="rId77" name="Check Box 80">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -31283,7 +31059,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10321" r:id="rId80" name="Check Box 81">
+            <control shapeId="10321" r:id="rId78" name="Check Box 81">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -31305,7 +31081,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10322" r:id="rId81" name="Check Box 82">
+            <control shapeId="10322" r:id="rId79" name="Check Box 82">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -31327,7 +31103,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10323" r:id="rId82" name="Check Box 83">
+            <control shapeId="10323" r:id="rId80" name="Check Box 83">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -31349,7 +31125,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10324" r:id="rId83" name="Check Box 84">
+            <control shapeId="10324" r:id="rId81" name="Check Box 84">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -31371,7 +31147,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10325" r:id="rId84" name="Check Box 85">
+            <control shapeId="10325" r:id="rId82" name="Check Box 85">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -31393,7 +31169,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10326" r:id="rId85" name="Check Box 86">
+            <control shapeId="10326" r:id="rId83" name="Check Box 86">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -31415,7 +31191,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10327" r:id="rId86" name="Check Box 87">
+            <control shapeId="10327" r:id="rId84" name="Check Box 87">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -31437,7 +31213,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10328" r:id="rId87" name="Check Box 88">
+            <control shapeId="10328" r:id="rId85" name="Check Box 88">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -31459,7 +31235,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10329" r:id="rId88" name="Check Box 89">
+            <control shapeId="10329" r:id="rId86" name="Check Box 89">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -31481,7 +31257,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10330" r:id="rId89" name="Check Box 90">
+            <control shapeId="10330" r:id="rId87" name="Check Box 90">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -31503,7 +31279,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10331" r:id="rId90" name="Check Box 91">
+            <control shapeId="10331" r:id="rId88" name="Check Box 91">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -31525,7 +31301,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10332" r:id="rId91" name="Check Box 92">
+            <control shapeId="10332" r:id="rId89" name="Check Box 92">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -31547,7 +31323,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10333" r:id="rId92" name="Check Box 93">
+            <control shapeId="10333" r:id="rId90" name="Check Box 93">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -31569,7 +31345,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10334" r:id="rId93" name="Check Box 94">
+            <control shapeId="10334" r:id="rId91" name="Check Box 94">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -31591,7 +31367,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10335" r:id="rId94" name="Check Box 95">
+            <control shapeId="10335" r:id="rId92" name="Check Box 95">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -31613,7 +31389,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10336" r:id="rId95" name="Check Box 96">
+            <control shapeId="10336" r:id="rId93" name="Check Box 96">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -31635,7 +31411,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10337" r:id="rId96" name="Check Box 97">
+            <control shapeId="10337" r:id="rId94" name="Check Box 97">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -31657,7 +31433,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10338" r:id="rId97" name="Check Box 98">
+            <control shapeId="10338" r:id="rId95" name="Check Box 98">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -31681,7 +31457,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <tableParts count="1">
-    <tablePart r:id="rId98"/>
+    <tablePart r:id="rId96"/>
   </tableParts>
 </worksheet>
 </file>

--- a/src/main/doc/2020年计划.xlsx
+++ b/src/main/doc/2020年计划.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8984EC-9235-451F-95EC-FBAE78C6B5AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD59A24-3409-4850-9D79-E212C2ECA1D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1450,7 +1450,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp110.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1662,7 +1662,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp158.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp159.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2486,7 +2486,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp94.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp95.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3381,19 +3381,19 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>123824</xdr:colOff>
+          <xdr:colOff>161925</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>5162549</xdr:colOff>
+          <xdr:colOff>4762500</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>371475</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10253" name="Check Box 13" hidden="1">
+            <xdr:cNvPr id="10253" name="我是" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s10253"/>
@@ -3467,13 +3467,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>123825</xdr:colOff>
+          <xdr:colOff>123824</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>790575</xdr:colOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>57149</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>371475</xdr:rowOff>
         </xdr:to>
@@ -6133,13 +6133,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>123825</xdr:colOff>
+          <xdr:colOff>123824</xdr:colOff>
           <xdr:row>28</xdr:row>
           <xdr:rowOff>342900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>790575</xdr:colOff>
+          <xdr:colOff>2971799</xdr:colOff>
           <xdr:row>28</xdr:row>
           <xdr:rowOff>609600</xdr:rowOff>
         </xdr:to>
@@ -29607,18 +29607,18 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10253" r:id="rId12" name="Check Box 13">
+            <control shapeId="10253" r:id="rId12" name="我是">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>123825</xdr:colOff>
+                    <xdr:colOff>161925</xdr:colOff>
                     <xdr:row>17</xdr:row>
                     <xdr:rowOff>104775</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>5162550</xdr:colOff>
+                    <xdr:colOff>4762500</xdr:colOff>
                     <xdr:row>17</xdr:row>
                     <xdr:rowOff>371475</xdr:rowOff>
                   </to>
@@ -29639,8 +29639,8 @@
                     <xdr:rowOff>104775</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>790575</xdr:colOff>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>18</xdr:row>
                     <xdr:rowOff>371475</xdr:rowOff>
                   </to>
@@ -30322,7 +30322,7 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>790575</xdr:colOff>
+                    <xdr:colOff>2971800</xdr:colOff>
                     <xdr:row>28</xdr:row>
                     <xdr:rowOff>609600</xdr:rowOff>
                   </to>
@@ -31467,7 +31467,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/src/main/doc/2020年计划.xlsx
+++ b/src/main/doc/2020年计划.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD59A24-3409-4850-9D79-E212C2ECA1D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F94484A-7538-4B2C-922B-DE62D2459F5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -786,7 +786,7 @@
     <numFmt numFmtId="176" formatCode="[$-804]aaaa;@"/>
     <numFmt numFmtId="177" formatCode="[$-804]aaa;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -847,6 +847,17 @@
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei UI"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Microsoft YaHei UI"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1406,7 +1417,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp100.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1414,11 +1425,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp101.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp102.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp103.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1426,11 +1437,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp104.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp105.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp106.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1438,11 +1449,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp107.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp108.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp109.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1454,11 +1465,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp110.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp111.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp112.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1466,11 +1477,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp113.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp114.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp115.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1478,11 +1489,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp116.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp117.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp118.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1490,7 +1501,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp119.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1498,7 +1509,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp120.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp121.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1506,11 +1517,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp122.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp123.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp124.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1518,11 +1529,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp125.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp126.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp127.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1530,11 +1541,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp128.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp129.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1546,11 +1557,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp131.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp132.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp133.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1558,11 +1569,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp134.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp135.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp136.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1570,11 +1581,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp137.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp138.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp139.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1582,15 +1593,15 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp140.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp140.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp141.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp141.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp142.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1598,11 +1609,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp143.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp144.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp145.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1610,11 +1621,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp146.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp147.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp148.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1622,15 +1633,15 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp149.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp150.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp151.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1638,7 +1649,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp152.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp153.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1666,7 +1677,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp159.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1678,11 +1689,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp161.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp162.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp163.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1690,11 +1701,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp164.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp165.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp166.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1702,11 +1713,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp167.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp168.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp169.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1714,15 +1725,15 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp170.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp170.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp171.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp171.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp172.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1730,11 +1741,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp173.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp174.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp175.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1742,11 +1753,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp176.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp177.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp178.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1754,15 +1765,15 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp179.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp18.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp180.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp181.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1770,11 +1781,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp182.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp183.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp184.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1782,7 +1793,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp185.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp186.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1798,7 +1809,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp189.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1810,11 +1821,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp191.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp192.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp193.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1822,11 +1833,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp194.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp195.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp196.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1834,11 +1845,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp197.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp198.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp199.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1850,15 +1861,15 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp20.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp200.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp200.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp201.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp201.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp202.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1866,11 +1877,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp203.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp204.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp205.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1878,11 +1889,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp206.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp207.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp208.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1890,15 +1901,15 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp209.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp210.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp211.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1906,11 +1917,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp212.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp213.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp214.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1918,11 +1929,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp215.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp216.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp217.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1930,11 +1941,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp218.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp219.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1946,11 +1957,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp221.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp222.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp223.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1958,11 +1969,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp224.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp225.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp226.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1970,11 +1981,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp227.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp228.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp229.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1982,15 +1993,15 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp230.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp230.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp231.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp231.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp232.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1998,11 +2009,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp233.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp234.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp235.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2010,11 +2021,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp236.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp237.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp238.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2022,15 +2033,15 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp239.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp24.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp240.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp241.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2038,11 +2049,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp242.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp243.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp244.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2050,11 +2061,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp245.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp246.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp247.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2062,11 +2073,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp248.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp249.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp25.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2078,11 +2089,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp251.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp252.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp253.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2090,11 +2101,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp254.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp255.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp256.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2102,11 +2113,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp257.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp258.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp259.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2114,15 +2125,15 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp26.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp260.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp260.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp261.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp261.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp262.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2130,11 +2141,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp263.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp264.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp265.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2142,11 +2153,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp266.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp267.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp268.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2154,15 +2165,15 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp269.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp27.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp270.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp271.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2170,11 +2181,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp272.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp273.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp274.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2182,14 +2193,6 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp275.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp276.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp277.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
@@ -2198,7 +2201,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp29.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2206,7 +2209,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp30.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp31.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2214,11 +2217,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp32.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp33.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp34.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2226,11 +2229,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp35.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp36.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp37.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2242,7 +2245,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp39.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2258,7 +2261,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp42.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp43.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2270,7 +2273,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp45.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp46.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2278,7 +2281,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp47.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp48.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2334,7 +2337,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp60.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2346,7 +2349,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp62.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp63.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2378,7 +2381,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp70.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2390,7 +2393,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp72.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp73.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2398,35 +2401,35 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp74.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp75.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp76.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp77.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp78.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp79.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp80.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp81.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2434,11 +2437,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp82.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp83.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp84.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2454,47 +2457,47 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp87.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp88.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp89.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp90.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp91.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp92.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp93.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp94.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp88.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp95.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp89.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp90.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp91.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp92.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp93.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp94.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp96.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp95.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp96.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp97.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2502,11 +2505,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp98.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp99.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3381,25 +3384,25 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>161925</xdr:colOff>
-          <xdr:row>17</xdr:row>
+          <xdr:colOff>123825</xdr:colOff>
+          <xdr:row>21</xdr:row>
           <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>4762500</xdr:colOff>
-          <xdr:row>17</xdr:row>
+          <xdr:colOff>790575</xdr:colOff>
+          <xdr:row>21</xdr:row>
           <xdr:rowOff>371475</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10253" name="我是" hidden="1">
+            <xdr:cNvPr id="10265" name="Check Box 25" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10253"/>
+                  <a14:compatExt spid="_x0000_s10265"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000D280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000019280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3467,25 +3470,25 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>123824</xdr:colOff>
-          <xdr:row>18</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:colOff>123825</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>57149</xdr:colOff>
-          <xdr:row>18</xdr:row>
-          <xdr:rowOff>371475</xdr:rowOff>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>790575</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>609600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10256" name="Check Box 16" hidden="1">
+            <xdr:cNvPr id="10266" name="Check Box 26" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10256"/>
+                  <a14:compatExt spid="_x0000_s10266"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000010280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001A280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3538,7 +3541,7 @@
                   <a:latin typeface="Microsoft YaHei UI"/>
                   <a:ea typeface="Microsoft YaHei UI"/>
                 </a:rPr>
-                <a:t>地方复选框 1</a:t>
+                <a:t>复选框 1</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -3554,24 +3557,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>18</xdr:row>
-          <xdr:rowOff>342900</xdr:rowOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>571500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>18</xdr:row>
-          <xdr:rowOff>609600</xdr:rowOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>838200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10257" name="Check Box 17" hidden="1">
+            <xdr:cNvPr id="10267" name="Check Box 27" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10257"/>
+                  <a14:compatExt spid="_x0000_s10267"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000011280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001B280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3640,24 +3643,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>18</xdr:row>
-          <xdr:rowOff>571500</xdr:rowOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>18</xdr:row>
-          <xdr:rowOff>838200</xdr:rowOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>371475</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10258" name="Check Box 18" hidden="1">
+            <xdr:cNvPr id="10268" name="Check Box 28" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10258"/>
+                  <a14:compatExt spid="_x0000_s10268"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000012280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001C280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3726,24 +3729,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>19</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>19</xdr:row>
-          <xdr:rowOff>371475</xdr:rowOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>609600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10259" name="Check Box 19" hidden="1">
+            <xdr:cNvPr id="10269" name="Check Box 29" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10259"/>
+                  <a14:compatExt spid="_x0000_s10269"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000013280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001D280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3812,24 +3815,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>19</xdr:row>
-          <xdr:rowOff>342900</xdr:rowOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>571500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>19</xdr:row>
-          <xdr:rowOff>609600</xdr:rowOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>838200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10260" name="Check Box 20" hidden="1">
+            <xdr:cNvPr id="10270" name="Check Box 30" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10260"/>
+                  <a14:compatExt spid="_x0000_s10270"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000014280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001E280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3898,24 +3901,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>19</xdr:row>
-          <xdr:rowOff>571500</xdr:rowOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>19</xdr:row>
-          <xdr:rowOff>838200</xdr:rowOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>371475</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10261" name="Check Box 21" hidden="1">
+            <xdr:cNvPr id="10271" name="Check Box 31" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10261"/>
+                  <a14:compatExt spid="_x0000_s10271"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000015280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001F280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3984,24 +3987,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>20</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>20</xdr:row>
-          <xdr:rowOff>371475</xdr:rowOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>609600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10262" name="Check Box 22" hidden="1">
+            <xdr:cNvPr id="10272" name="Check Box 32" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10262"/>
+                  <a14:compatExt spid="_x0000_s10272"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000016280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000020280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4070,24 +4073,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>20</xdr:row>
-          <xdr:rowOff>342900</xdr:rowOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>571500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>20</xdr:row>
-          <xdr:rowOff>609600</xdr:rowOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>838200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10263" name="Check Box 23" hidden="1">
+            <xdr:cNvPr id="10273" name="Check Box 33" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10263"/>
+                  <a14:compatExt spid="_x0000_s10273"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000017280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000021280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4156,24 +4159,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>20</xdr:row>
-          <xdr:rowOff>571500</xdr:rowOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>20</xdr:row>
-          <xdr:rowOff>838200</xdr:rowOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>371475</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10264" name="Check Box 24" hidden="1">
+            <xdr:cNvPr id="10274" name="Check Box 34" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10264"/>
+                  <a14:compatExt spid="_x0000_s10274"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000018280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000022280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4242,24 +4245,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>21</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>21</xdr:row>
-          <xdr:rowOff>371475</xdr:rowOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>609600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10265" name="Check Box 25" hidden="1">
+            <xdr:cNvPr id="10275" name="Check Box 35" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10265"/>
+                  <a14:compatExt spid="_x0000_s10275"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000019280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000023280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4328,24 +4331,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>21</xdr:row>
-          <xdr:rowOff>342900</xdr:rowOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>571500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>21</xdr:row>
-          <xdr:rowOff>609600</xdr:rowOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>838200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10266" name="Check Box 26" hidden="1">
+            <xdr:cNvPr id="10276" name="Check Box 36" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10266"/>
+                  <a14:compatExt spid="_x0000_s10276"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001A280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000024280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4414,24 +4417,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>21</xdr:row>
-          <xdr:rowOff>571500</xdr:rowOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>21</xdr:row>
-          <xdr:rowOff>838200</xdr:rowOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>371475</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10267" name="Check Box 27" hidden="1">
+            <xdr:cNvPr id="10277" name="Check Box 37" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10267"/>
+                  <a14:compatExt spid="_x0000_s10277"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001B280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000025280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4500,24 +4503,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>22</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>22</xdr:row>
-          <xdr:rowOff>371475</xdr:rowOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>609600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10268" name="Check Box 28" hidden="1">
+            <xdr:cNvPr id="10278" name="Check Box 38" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10268"/>
+                  <a14:compatExt spid="_x0000_s10278"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001C280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000026280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4586,24 +4589,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>22</xdr:row>
-          <xdr:rowOff>342900</xdr:rowOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>571500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>22</xdr:row>
-          <xdr:rowOff>609600</xdr:rowOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>838200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10269" name="Check Box 29" hidden="1">
+            <xdr:cNvPr id="10279" name="Check Box 39" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10269"/>
+                  <a14:compatExt spid="_x0000_s10279"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001D280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000027280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4672,24 +4675,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>22</xdr:row>
-          <xdr:rowOff>571500</xdr:rowOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>22</xdr:row>
-          <xdr:rowOff>838200</xdr:rowOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>371475</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10270" name="Check Box 30" hidden="1">
+            <xdr:cNvPr id="10280" name="Check Box 40" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10270"/>
+                  <a14:compatExt spid="_x0000_s10280"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001E280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000028280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4758,24 +4761,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>23</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>23</xdr:row>
-          <xdr:rowOff>371475</xdr:rowOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>609600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10271" name="Check Box 31" hidden="1">
+            <xdr:cNvPr id="10281" name="Check Box 41" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10271"/>
+                  <a14:compatExt spid="_x0000_s10281"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001F280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000029280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4844,24 +4847,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>23</xdr:row>
-          <xdr:rowOff>342900</xdr:rowOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>571500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>23</xdr:row>
-          <xdr:rowOff>609600</xdr:rowOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>838200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10272" name="Check Box 32" hidden="1">
+            <xdr:cNvPr id="10282" name="Check Box 42" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10272"/>
+                  <a14:compatExt spid="_x0000_s10282"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000020280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002A280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4930,24 +4933,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>23</xdr:row>
-          <xdr:rowOff>571500</xdr:rowOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>23</xdr:row>
-          <xdr:rowOff>838200</xdr:rowOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>371475</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10273" name="Check Box 33" hidden="1">
+            <xdr:cNvPr id="10283" name="Check Box 43" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10273"/>
+                  <a14:compatExt spid="_x0000_s10283"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000021280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002B280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5016,24 +5019,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>24</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>24</xdr:row>
-          <xdr:rowOff>371475</xdr:rowOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>609600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10274" name="Check Box 34" hidden="1">
+            <xdr:cNvPr id="10284" name="Check Box 44" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10274"/>
+                  <a14:compatExt spid="_x0000_s10284"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000022280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002C280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5102,24 +5105,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>24</xdr:row>
-          <xdr:rowOff>342900</xdr:rowOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>571500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>24</xdr:row>
-          <xdr:rowOff>609600</xdr:rowOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>838200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10275" name="Check Box 35" hidden="1">
+            <xdr:cNvPr id="10285" name="Check Box 45" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10275"/>
+                  <a14:compatExt spid="_x0000_s10285"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000023280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002D280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5188,24 +5191,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>24</xdr:row>
-          <xdr:rowOff>571500</xdr:rowOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>24</xdr:row>
-          <xdr:rowOff>838200</xdr:rowOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>371475</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10276" name="Check Box 36" hidden="1">
+            <xdr:cNvPr id="10286" name="Check Box 46" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10276"/>
+                  <a14:compatExt spid="_x0000_s10286"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000024280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002E280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5274,24 +5277,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>25</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>25</xdr:row>
-          <xdr:rowOff>371475</xdr:rowOff>
+          <xdr:colOff>2971800</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>609600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10277" name="Check Box 37" hidden="1">
+            <xdr:cNvPr id="10287" name="Check Box 47" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10277"/>
+                  <a14:compatExt spid="_x0000_s10287"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000025280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002F280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5360,24 +5363,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>25</xdr:row>
-          <xdr:rowOff>342900</xdr:rowOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>571500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>25</xdr:row>
-          <xdr:rowOff>609600</xdr:rowOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>838200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10278" name="Check Box 38" hidden="1">
+            <xdr:cNvPr id="10288" name="Check Box 48" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10278"/>
+                  <a14:compatExt spid="_x0000_s10288"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000026280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000030280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5446,24 +5449,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>25</xdr:row>
-          <xdr:rowOff>571500</xdr:rowOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>25</xdr:row>
-          <xdr:rowOff>838200</xdr:rowOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>371475</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10279" name="Check Box 39" hidden="1">
+            <xdr:cNvPr id="10289" name="Check Box 49" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10279"/>
+                  <a14:compatExt spid="_x0000_s10289"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000027280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000031280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5532,24 +5535,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>26</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>26</xdr:row>
-          <xdr:rowOff>371475</xdr:rowOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>609600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10280" name="Check Box 40" hidden="1">
+            <xdr:cNvPr id="10290" name="Check Box 50" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10280"/>
+                  <a14:compatExt spid="_x0000_s10290"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000028280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000032280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5618,24 +5621,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>26</xdr:row>
-          <xdr:rowOff>342900</xdr:rowOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>571500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>26</xdr:row>
-          <xdr:rowOff>609600</xdr:rowOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>838200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10281" name="Check Box 41" hidden="1">
+            <xdr:cNvPr id="10291" name="Check Box 51" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10281"/>
+                  <a14:compatExt spid="_x0000_s10291"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000029280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000033280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5704,24 +5707,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>26</xdr:row>
-          <xdr:rowOff>571500</xdr:rowOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>26</xdr:row>
-          <xdr:rowOff>838200</xdr:rowOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>371475</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10282" name="Check Box 42" hidden="1">
+            <xdr:cNvPr id="10292" name="Check Box 52" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10282"/>
+                  <a14:compatExt spid="_x0000_s10292"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002A280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000034280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5790,24 +5793,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>27</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>27</xdr:row>
-          <xdr:rowOff>371475</xdr:rowOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>609600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10283" name="Check Box 43" hidden="1">
+            <xdr:cNvPr id="10293" name="Check Box 53" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10283"/>
+                  <a14:compatExt spid="_x0000_s10293"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002B280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000035280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5876,24 +5879,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>27</xdr:row>
-          <xdr:rowOff>342900</xdr:rowOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>571500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>27</xdr:row>
-          <xdr:rowOff>609600</xdr:rowOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>838200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10284" name="Check Box 44" hidden="1">
+            <xdr:cNvPr id="10294" name="Check Box 54" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10284"/>
+                  <a14:compatExt spid="_x0000_s10294"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002C280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000036280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5962,24 +5965,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>27</xdr:row>
-          <xdr:rowOff>571500</xdr:rowOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>27</xdr:row>
-          <xdr:rowOff>838200</xdr:rowOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>371475</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10285" name="Check Box 45" hidden="1">
+            <xdr:cNvPr id="10295" name="Check Box 55" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10285"/>
+                  <a14:compatExt spid="_x0000_s10295"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002D280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000037280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6048,24 +6051,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>28</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>28</xdr:row>
-          <xdr:rowOff>371475</xdr:rowOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>609600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10286" name="Check Box 46" hidden="1">
+            <xdr:cNvPr id="10296" name="Check Box 56" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10286"/>
+                  <a14:compatExt spid="_x0000_s10296"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002E280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000038280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6133,25 +6136,25 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>123824</xdr:colOff>
-          <xdr:row>28</xdr:row>
-          <xdr:rowOff>342900</xdr:rowOff>
+          <xdr:colOff>123825</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>571500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>2971799</xdr:colOff>
-          <xdr:row>28</xdr:row>
-          <xdr:rowOff>609600</xdr:rowOff>
+          <xdr:colOff>790575</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>838200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10287" name="Check Box 47" hidden="1">
+            <xdr:cNvPr id="10297" name="Check Box 57" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10287"/>
+                  <a14:compatExt spid="_x0000_s10297"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002F280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000039280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6220,24 +6223,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>28</xdr:row>
-          <xdr:rowOff>571500</xdr:rowOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>28</xdr:row>
-          <xdr:rowOff>838200</xdr:rowOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>371475</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10288" name="Check Box 48" hidden="1">
+            <xdr:cNvPr id="10298" name="Check Box 58" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10288"/>
+                  <a14:compatExt spid="_x0000_s10298"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000030280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00003A280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6306,24 +6309,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>29</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>29</xdr:row>
-          <xdr:rowOff>371475</xdr:rowOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>609600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10289" name="Check Box 49" hidden="1">
+            <xdr:cNvPr id="10299" name="Check Box 59" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10289"/>
+                  <a14:compatExt spid="_x0000_s10299"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000031280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00003B280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6392,24 +6395,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>29</xdr:row>
-          <xdr:rowOff>342900</xdr:rowOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>571500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>29</xdr:row>
-          <xdr:rowOff>609600</xdr:rowOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>838200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10290" name="Check Box 50" hidden="1">
+            <xdr:cNvPr id="10300" name="Check Box 60" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10290"/>
+                  <a14:compatExt spid="_x0000_s10300"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000032280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00003C280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6478,24 +6481,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>29</xdr:row>
-          <xdr:rowOff>571500</xdr:rowOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>29</xdr:row>
-          <xdr:rowOff>838200</xdr:rowOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>371475</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10291" name="Check Box 51" hidden="1">
+            <xdr:cNvPr id="10301" name="Check Box 61" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10291"/>
+                  <a14:compatExt spid="_x0000_s10301"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000033280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00003D280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6564,24 +6567,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>400050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>371475</xdr:rowOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>666750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10292" name="Check Box 52" hidden="1">
+            <xdr:cNvPr id="10302" name="Check Box 62" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10292"/>
+                  <a14:compatExt spid="_x0000_s10302"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000034280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00003E280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6650,24 +6653,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>342900</xdr:rowOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>695325</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>609600</xdr:rowOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10293" name="Check Box 53" hidden="1">
+            <xdr:cNvPr id="10303" name="Check Box 63" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10293"/>
+                  <a14:compatExt spid="_x0000_s10303"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000035280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00003F280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6736,24 +6739,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>571500</xdr:rowOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>838200</xdr:rowOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>314325</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10294" name="Check Box 54" hidden="1">
+            <xdr:cNvPr id="10304" name="Check Box 64" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10294"/>
+                  <a14:compatExt spid="_x0000_s10304"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000036280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000040280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6822,24 +6825,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>371475</xdr:rowOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>609600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10295" name="Check Box 55" hidden="1">
+            <xdr:cNvPr id="10305" name="Check Box 65" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10295"/>
+                  <a14:compatExt spid="_x0000_s10305"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000037280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000041280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6908,24 +6911,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>342900</xdr:rowOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>571500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>609600</xdr:rowOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>838200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10296" name="Check Box 56" hidden="1">
+            <xdr:cNvPr id="10306" name="Check Box 66" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10296"/>
+                  <a14:compatExt spid="_x0000_s10306"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000038280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000042280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6994,24 +6997,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>571500</xdr:rowOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>838200</xdr:rowOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>371475</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10297" name="Check Box 57" hidden="1">
+            <xdr:cNvPr id="10307" name="Check Box 67" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10297"/>
+                  <a14:compatExt spid="_x0000_s10307"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000039280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000043280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7080,24 +7083,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>371475</xdr:rowOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>609600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10298" name="Check Box 58" hidden="1">
+            <xdr:cNvPr id="10308" name="Check Box 68" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10298"/>
+                  <a14:compatExt spid="_x0000_s10308"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00003A280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000044280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7166,24 +7169,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>342900</xdr:rowOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>571500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>609600</xdr:rowOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>838200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10299" name="Check Box 59" hidden="1">
+            <xdr:cNvPr id="10309" name="Check Box 69" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10299"/>
+                  <a14:compatExt spid="_x0000_s10309"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00003B280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000045280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7252,24 +7255,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>571500</xdr:rowOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>838200</xdr:rowOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>371475</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10300" name="Check Box 60" hidden="1">
+            <xdr:cNvPr id="10310" name="Check Box 70" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10300"/>
+                  <a14:compatExt spid="_x0000_s10310"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00003C280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000046280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7338,24 +7341,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>371475</xdr:rowOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>609600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10301" name="Check Box 61" hidden="1">
+            <xdr:cNvPr id="10311" name="Check Box 71" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10301"/>
+                  <a14:compatExt spid="_x0000_s10311"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00003D280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000047280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7424,24 +7427,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>342900</xdr:rowOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>571500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>609600</xdr:rowOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>838200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10302" name="Check Box 62" hidden="1">
+            <xdr:cNvPr id="10312" name="Check Box 72" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10302"/>
+                  <a14:compatExt spid="_x0000_s10312"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00003E280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000048280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7510,24 +7513,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>571500</xdr:rowOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>838200</xdr:rowOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>371475</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10303" name="Check Box 63" hidden="1">
+            <xdr:cNvPr id="10313" name="Check Box 73" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10303"/>
+                  <a14:compatExt spid="_x0000_s10313"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00003F280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000049280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7596,24 +7599,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>371475</xdr:rowOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>609600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10304" name="Check Box 64" hidden="1">
+            <xdr:cNvPr id="10314" name="Check Box 74" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10304"/>
+                  <a14:compatExt spid="_x0000_s10314"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000040280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00004A280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7682,24 +7685,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>342900</xdr:rowOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>571500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>609600</xdr:rowOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>838200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10305" name="Check Box 65" hidden="1">
+            <xdr:cNvPr id="10315" name="Check Box 75" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10305"/>
+                  <a14:compatExt spid="_x0000_s10315"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000041280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00004B280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7768,24 +7771,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>571500</xdr:rowOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>838200</xdr:rowOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>371475</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10306" name="Check Box 66" hidden="1">
+            <xdr:cNvPr id="10316" name="Check Box 76" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10306"/>
+                  <a14:compatExt spid="_x0000_s10316"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000042280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00004C280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7854,24 +7857,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>371475</xdr:rowOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>609600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10307" name="Check Box 67" hidden="1">
+            <xdr:cNvPr id="10317" name="Check Box 77" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10307"/>
+                  <a14:compatExt spid="_x0000_s10317"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000043280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00004D280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7940,24 +7943,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>342900</xdr:rowOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>571500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>609600</xdr:rowOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>838200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10308" name="Check Box 68" hidden="1">
+            <xdr:cNvPr id="10318" name="Check Box 78" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10308"/>
+                  <a14:compatExt spid="_x0000_s10318"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000044280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00004E280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8026,24 +8029,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>571500</xdr:rowOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>838200</xdr:rowOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>371475</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10309" name="Check Box 69" hidden="1">
+            <xdr:cNvPr id="10319" name="Check Box 79" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10309"/>
+                  <a14:compatExt spid="_x0000_s10319"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000045280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00004F280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8112,24 +8115,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>371475</xdr:rowOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>609600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10310" name="Check Box 70" hidden="1">
+            <xdr:cNvPr id="10320" name="Check Box 80" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10310"/>
+                  <a14:compatExt spid="_x0000_s10320"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000046280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000050280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8198,24 +8201,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>342900</xdr:rowOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>571500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>609600</xdr:rowOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>838200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10311" name="Check Box 71" hidden="1">
+            <xdr:cNvPr id="10321" name="Check Box 81" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10311"/>
+                  <a14:compatExt spid="_x0000_s10321"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000047280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000051280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8284,24 +8287,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>571500</xdr:rowOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>838200</xdr:rowOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>371475</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10312" name="Check Box 72" hidden="1">
+            <xdr:cNvPr id="10322" name="Check Box 82" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10312"/>
+                  <a14:compatExt spid="_x0000_s10322"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000048280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000052280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8370,24 +8373,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>371475</xdr:rowOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>609600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10313" name="Check Box 73" hidden="1">
+            <xdr:cNvPr id="10323" name="Check Box 83" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10313"/>
+                  <a14:compatExt spid="_x0000_s10323"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000049280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000053280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8456,24 +8459,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>342900</xdr:rowOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>571500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>609600</xdr:rowOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>838200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10314" name="Check Box 74" hidden="1">
+            <xdr:cNvPr id="10324" name="Check Box 84" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10314"/>
+                  <a14:compatExt spid="_x0000_s10324"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00004A280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000054280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8542,24 +8545,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>571500</xdr:rowOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>838200</xdr:rowOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>371475</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10315" name="Check Box 75" hidden="1">
+            <xdr:cNvPr id="10325" name="Check Box 85" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10315"/>
+                  <a14:compatExt spid="_x0000_s10325"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00004B280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000055280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8628,24 +8631,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>371475</xdr:rowOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>609600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10316" name="Check Box 76" hidden="1">
+            <xdr:cNvPr id="10326" name="Check Box 86" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10316"/>
+                  <a14:compatExt spid="_x0000_s10326"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00004C280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000056280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8714,24 +8717,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>342900</xdr:rowOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>571500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>609600</xdr:rowOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>838200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10317" name="Check Box 77" hidden="1">
+            <xdr:cNvPr id="10327" name="Check Box 87" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10317"/>
+                  <a14:compatExt spid="_x0000_s10327"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00004D280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000057280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8800,24 +8803,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>571500</xdr:rowOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>800100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>838200</xdr:rowOff>
+          <xdr:colOff>3571875</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>1066800</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10318" name="Check Box 78" hidden="1">
+            <xdr:cNvPr id="10328" name="Check Box 88" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10318"/>
+                  <a14:compatExt spid="_x0000_s10328"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00004E280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000058280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8870,7 +8873,7 @@
                   <a:latin typeface="Microsoft YaHei UI"/>
                   <a:ea typeface="Microsoft YaHei UI"/>
                 </a:rPr>
-                <a:t>复选框 1</a:t>
+                <a:t>第07课-时间函数：不翻日历，几个函数帮你搞定日期计算</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -8886,24 +8889,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>1028700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>371475</xdr:rowOff>
+          <xdr:colOff>3571875</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>1295400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10319" name="Check Box 79" hidden="1">
+            <xdr:cNvPr id="10329" name="Check Box 89" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10319"/>
+                  <a14:compatExt spid="_x0000_s10329"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00004F280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000059280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8956,7 +8959,7 @@
                   <a:latin typeface="Microsoft YaHei UI"/>
                   <a:ea typeface="Microsoft YaHei UI"/>
                 </a:rPr>
-                <a:t>复选框 1</a:t>
+                <a:t>第08课-数据舍入：函数中的四舍五入问题，帮你快速判断何时取大值或小值</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -8972,24 +8975,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>342900</xdr:rowOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>1266825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>609600</xdr:rowOff>
+          <xdr:colOff>4733925</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>1533525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10320" name="Check Box 80" hidden="1">
+            <xdr:cNvPr id="10330" name="Check Box 90" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10320"/>
+                  <a14:compatExt spid="_x0000_s10330"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000050280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00005A280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9042,7 +9045,7 @@
                   <a:latin typeface="Microsoft YaHei UI"/>
                   <a:ea typeface="Microsoft YaHei UI"/>
                 </a:rPr>
-                <a:t>复选框 1</a:t>
+                <a:t>第09课-数据匹配（1）：函数中的战斗机【VLOOKUP】,一节教会你全部套路</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -9058,24 +9061,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>571500</xdr:rowOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>1466850</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>838200</xdr:rowOff>
+          <xdr:colOff>4733925</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>1733550</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10321" name="Check Box 81" hidden="1">
+            <xdr:cNvPr id="10331" name="Check Box 91" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10321"/>
+                  <a14:compatExt spid="_x0000_s10331"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000051280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00005B280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9128,7 +9131,7 @@
                   <a:latin typeface="Microsoft YaHei UI"/>
                   <a:ea typeface="Microsoft YaHei UI"/>
                 </a:rPr>
-                <a:t>复选框 1</a:t>
+                <a:t>回家少看手机，多陪伴家人</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -9144,24 +9147,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>371475</xdr:rowOff>
+          <xdr:colOff>4514850</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>609600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10322" name="Check Box 82" hidden="1">
+            <xdr:cNvPr id="10332" name="Check Box 92" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10322"/>
+                  <a14:compatExt spid="_x0000_s10332"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000052280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00005C280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9214,7 +9217,7 @@
                   <a:latin typeface="Microsoft YaHei UI"/>
                   <a:ea typeface="Microsoft YaHei UI"/>
                 </a:rPr>
-                <a:t>复选框 1</a:t>
+                <a:t>光环国际微信公众号：1篇文章</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -9229,25 +9232,25 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>342900</xdr:rowOff>
+          <xdr:colOff>114300</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>561975</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>609600</xdr:rowOff>
+          <xdr:colOff>5362575</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>828675</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10323" name="Check Box 83" hidden="1">
+            <xdr:cNvPr id="10333" name="Check Box 93" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10323"/>
+                  <a14:compatExt spid="_x0000_s10333"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000053280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00005D280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9300,7 +9303,7 @@
                   <a:latin typeface="Microsoft YaHei UI"/>
                   <a:ea typeface="Microsoft YaHei UI"/>
                 </a:rPr>
-                <a:t>复选框 1</a:t>
+                <a:t>第11课-逻辑函数：思维混乱的人，不知道的结构化思考的N个秘密-练习</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -9316,24 +9319,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>571500</xdr:rowOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>781050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>838200</xdr:rowOff>
+          <xdr:colOff>4733925</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>1047750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10324" name="Check Box 84" hidden="1">
+            <xdr:cNvPr id="10334" name="Check Box 94" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10324"/>
+                  <a14:compatExt spid="_x0000_s10334"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000054280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00005E280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9386,7 +9389,7 @@
                   <a:latin typeface="Microsoft YaHei UI"/>
                   <a:ea typeface="Microsoft YaHei UI"/>
                 </a:rPr>
-                <a:t>复选框 1</a:t>
+                <a:t>回家少看手机，多陪伴家人</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -9402,24 +9405,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>781050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>371475</xdr:rowOff>
+          <xdr:colOff>4733925</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10325" name="Check Box 85" hidden="1">
+            <xdr:cNvPr id="10335" name="Check Box 95" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10325"/>
+                  <a14:compatExt spid="_x0000_s10335"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000055280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00005F280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9472,7 +9475,7 @@
                   <a:latin typeface="Microsoft YaHei UI"/>
                   <a:ea typeface="Microsoft YaHei UI"/>
                 </a:rPr>
-                <a:t>复选框 1</a:t>
+                <a:t>回家少看手机，多陪伴家人</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -9488,24 +9491,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>12</xdr:row>
+          <xdr:row>16</xdr:row>
           <xdr:rowOff>342900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>12</xdr:row>
+          <xdr:colOff>4514850</xdr:colOff>
+          <xdr:row>16</xdr:row>
           <xdr:rowOff>609600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10326" name="Check Box 86" hidden="1">
+            <xdr:cNvPr id="10336" name="Check Box 96" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10326"/>
+                  <a14:compatExt spid="_x0000_s10336"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000056280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000060280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9558,7 +9561,7 @@
                   <a:latin typeface="Microsoft YaHei UI"/>
                   <a:ea typeface="Microsoft YaHei UI"/>
                 </a:rPr>
-                <a:t>复选框 1</a:t>
+                <a:t>光环国际微信公众号：1篇文章</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -9574,24 +9577,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>571500</xdr:rowOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>533400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>838200</xdr:rowOff>
+          <xdr:colOff>5210175</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>800100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10327" name="Check Box 87" hidden="1">
+            <xdr:cNvPr id="10337" name="Check Box 97" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10327"/>
+                  <a14:compatExt spid="_x0000_s10337"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000057280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000061280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9644,7 +9647,7 @@
                   <a:latin typeface="Microsoft YaHei UI"/>
                   <a:ea typeface="Microsoft YaHei UI"/>
                 </a:rPr>
-                <a:t>复选框 1</a:t>
+                <a:t>第12课-数组计算：简化操作省时间，一步完成10组运算！-练习</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -9660,24 +9663,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>800100</xdr:rowOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>781050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>3571875</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>1066800</xdr:rowOff>
+          <xdr:colOff>4733925</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>1047750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10328" name="Check Box 88" hidden="1">
+            <xdr:cNvPr id="10338" name="Check Box 98" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10328"/>
+                  <a14:compatExt spid="_x0000_s10338"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000058280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000062280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9730,7 +9733,7 @@
                   <a:latin typeface="Microsoft YaHei UI"/>
                   <a:ea typeface="Microsoft YaHei UI"/>
                 </a:rPr>
-                <a:t>第07课-时间函数：不翻日历，几个函数帮你搞定日期计算</a:t>
+                <a:t>回家少看手机，多陪伴家人</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -9745,25 +9748,25 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>1028700</xdr:rowOff>
+          <xdr:colOff>133350</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>3571875</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>1295400</xdr:rowOff>
+          <xdr:colOff>4810125</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>285750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10329" name="Check Box 89" hidden="1">
+            <xdr:cNvPr id="10339" name="Check Box 99" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10329"/>
+                  <a14:compatExt spid="_x0000_s10339"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000059280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFA62C47-79EB-4830-9E5F-2C758E92C917}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9816,7 +9819,7 @@
                   <a:latin typeface="Microsoft YaHei UI"/>
                   <a:ea typeface="Microsoft YaHei UI"/>
                 </a:rPr>
-                <a:t>第08课-数据舍入：函数中的四舍五入问题，帮你快速判断何时取大值或小值</a:t>
+                <a:t>第13课-数组计算（2）：简化操作省时间，一步完成10步运算</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -9831,25 +9834,25 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>1266825</xdr:rowOff>
+          <xdr:colOff>133350</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>4733925</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>1533525</xdr:rowOff>
+          <xdr:colOff>4524375</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>495300</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10330" name="Check Box 90" hidden="1">
+            <xdr:cNvPr id="10340" name="Check Box 100" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10330"/>
+                  <a14:compatExt spid="_x0000_s10340"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00005A280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000060280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9902,7 +9905,7 @@
                   <a:latin typeface="Microsoft YaHei UI"/>
                   <a:ea typeface="Microsoft YaHei UI"/>
                 </a:rPr>
-                <a:t>第09课-数据匹配（1）：函数中的战斗机【VLOOKUP】,一节教会你全部套路</a:t>
+                <a:t>光环国际微信公众号：1篇文章</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -9917,25 +9920,25 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>1466850</xdr:rowOff>
+          <xdr:colOff>133350</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>447675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>4733925</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>1733550</xdr:rowOff>
+          <xdr:colOff>4810125</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>714375</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10331" name="Check Box 91" hidden="1">
+            <xdr:cNvPr id="10341" name="Check Box 101" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10331"/>
+                  <a14:compatExt spid="_x0000_s10341"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00005B280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFA62C47-79EB-4830-9E5F-2C758E92C917}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9988,7 +9991,7 @@
                   <a:latin typeface="Microsoft YaHei UI"/>
                   <a:ea typeface="Microsoft YaHei UI"/>
                 </a:rPr>
-                <a:t>回家少看手机，多陪伴家人</a:t>
+                <a:t>第13课-数组计算（2）：简化操作省时间，一步完成10步运算-练习</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -10003,25 +10006,25 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>15</xdr:row>
-          <xdr:rowOff>342900</xdr:rowOff>
+          <xdr:colOff>133350</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>657225</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>4514850</xdr:colOff>
-          <xdr:row>15</xdr:row>
-          <xdr:rowOff>609600</xdr:rowOff>
+          <xdr:colOff>4743450</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>923925</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10332" name="Check Box 92" hidden="1">
+            <xdr:cNvPr id="10342" name="Check Box 102" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10332"/>
+                  <a14:compatExt spid="_x0000_s10342"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00005C280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000062280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10074,7 +10077,7 @@
                   <a:latin typeface="Microsoft YaHei UI"/>
                   <a:ea typeface="Microsoft YaHei UI"/>
                 </a:rPr>
-                <a:t>光环国际微信公众号：1篇文章</a:t>
+                <a:t>回家少看手机，多陪伴家人</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -10089,25 +10092,25 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>114300</xdr:colOff>
-          <xdr:row>15</xdr:row>
-          <xdr:rowOff>561975</xdr:rowOff>
+          <xdr:colOff>104775</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>5362575</xdr:colOff>
-          <xdr:row>15</xdr:row>
-          <xdr:rowOff>828675</xdr:rowOff>
+          <xdr:colOff>5210175</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10333" name="Check Box 93" hidden="1">
+            <xdr:cNvPr id="10343" name="Check Box 103" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10333"/>
+                  <a14:compatExt spid="_x0000_s10343"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00005D280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A70E713F-A70B-4BDD-85AC-818670DBDCCF}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10160,7 +10163,7 @@
                   <a:latin typeface="Microsoft YaHei UI"/>
                   <a:ea typeface="Microsoft YaHei UI"/>
                 </a:rPr>
-                <a:t>第11课-逻辑函数：思维混乱的人，不知道的结构化思考的N个秘密-练习</a:t>
+                <a:t>第14课-一个函数闯天下：Sumproduct函数强大到你想象不到</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -10175,25 +10178,25 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>14</xdr:row>
-          <xdr:rowOff>781050</xdr:rowOff>
+          <xdr:colOff>104775</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>257175</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>4733925</xdr:colOff>
-          <xdr:row>14</xdr:row>
-          <xdr:rowOff>1047750</xdr:rowOff>
+          <xdr:colOff>4495800</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>523875</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10334" name="Check Box 94" hidden="1">
+            <xdr:cNvPr id="10344" name="Check Box 104" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10334"/>
+                  <a14:compatExt spid="_x0000_s10344"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00005E280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000060280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10246,7 +10249,7 @@
                   <a:latin typeface="Microsoft YaHei UI"/>
                   <a:ea typeface="Microsoft YaHei UI"/>
                 </a:rPr>
-                <a:t>回家少看手机，多陪伴家人</a:t>
+                <a:t>光环国际微信公众号：1篇文章</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -10261,25 +10264,25 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>15</xdr:row>
-          <xdr:rowOff>781050</xdr:rowOff>
+          <xdr:colOff>104775</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>447675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>4733925</xdr:colOff>
-          <xdr:row>16</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:colOff>5210175</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>714375</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10335" name="Check Box 95" hidden="1">
+            <xdr:cNvPr id="10345" name="Check Box 105" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10335"/>
+                  <a14:compatExt spid="_x0000_s10345"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00005F280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A70E713F-A70B-4BDD-85AC-818670DBDCCF}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10332,7 +10335,7 @@
                   <a:latin typeface="Microsoft YaHei UI"/>
                   <a:ea typeface="Microsoft YaHei UI"/>
                 </a:rPr>
-                <a:t>回家少看手机，多陪伴家人</a:t>
+                <a:t>第14课-一个函数闯天下：Sumproduct函数强大到你想象不到-练习</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -10347,194 +10350,22 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>16</xdr:row>
-          <xdr:rowOff>342900</xdr:rowOff>
+          <xdr:colOff>104775</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>657225</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>4514850</xdr:colOff>
-          <xdr:row>16</xdr:row>
-          <xdr:rowOff>609600</xdr:rowOff>
+          <xdr:colOff>4714875</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>923925</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10336" name="Check Box 96" hidden="1">
+            <xdr:cNvPr id="10346" name="Check Box 106" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10336"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000060280000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI"/>
-                  <a:ea typeface="Microsoft YaHei UI"/>
-                </a:rPr>
-                <a:t>光环国际微信公众号：1篇文章</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>16</xdr:row>
-          <xdr:rowOff>533400</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>5210175</xdr:colOff>
-          <xdr:row>16</xdr:row>
-          <xdr:rowOff>800100</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="10337" name="Check Box 97" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10337"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000061280000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI"/>
-                  <a:ea typeface="Microsoft YaHei UI"/>
-                </a:rPr>
-                <a:t>第12课-数组计算：简化操作省时间，一步完成10组运算！-练习</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>16</xdr:row>
-          <xdr:rowOff>781050</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>4733925</xdr:colOff>
-          <xdr:row>16</xdr:row>
-          <xdr:rowOff>1047750</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="10338" name="Check Box 98" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10338"/>
+                  <a14:compatExt spid="_x0000_s10346"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000062280000}"/>
@@ -27708,6 +27539,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5429B0EC-AE74-46FA-8C68-B5DC2B9B9AF5}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -28416,6 +28248,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3ADAF6C-CC36-45F5-A668-0BE4E35A4738}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -29062,11 +28895,12 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D28E18-05DE-4C02-80D8-91E0219DE12D}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2:E30"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -29274,7 +29108,7 @@
       <c r="D17" s="20"/>
       <c r="E17" s="44"/>
     </row>
-    <row r="18" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="21">
         <v>44182</v>
       </c>
@@ -29607,227 +29441,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10253" r:id="rId12" name="我是">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>161925</xdr:colOff>
-                    <xdr:row>17</xdr:row>
-                    <xdr:rowOff>104775</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>4762500</xdr:colOff>
-                    <xdr:row>17</xdr:row>
-                    <xdr:rowOff>371475</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="10256" r:id="rId13" name="Check Box 16">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>123825</xdr:colOff>
-                    <xdr:row>18</xdr:row>
-                    <xdr:rowOff>104775</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>57150</xdr:colOff>
-                    <xdr:row>18</xdr:row>
-                    <xdr:rowOff>371475</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="10257" r:id="rId14" name="Check Box 17">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>123825</xdr:colOff>
-                    <xdr:row>18</xdr:row>
-                    <xdr:rowOff>342900</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>790575</xdr:colOff>
-                    <xdr:row>18</xdr:row>
-                    <xdr:rowOff>609600</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="10258" r:id="rId15" name="Check Box 18">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>123825</xdr:colOff>
-                    <xdr:row>18</xdr:row>
-                    <xdr:rowOff>571500</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>790575</xdr:colOff>
-                    <xdr:row>18</xdr:row>
-                    <xdr:rowOff>838200</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="10259" r:id="rId16" name="Check Box 19">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>123825</xdr:colOff>
-                    <xdr:row>19</xdr:row>
-                    <xdr:rowOff>104775</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>790575</xdr:colOff>
-                    <xdr:row>19</xdr:row>
-                    <xdr:rowOff>371475</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="10260" r:id="rId17" name="Check Box 20">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>123825</xdr:colOff>
-                    <xdr:row>19</xdr:row>
-                    <xdr:rowOff>342900</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>790575</xdr:colOff>
-                    <xdr:row>19</xdr:row>
-                    <xdr:rowOff>609600</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="10261" r:id="rId18" name="Check Box 21">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>123825</xdr:colOff>
-                    <xdr:row>19</xdr:row>
-                    <xdr:rowOff>571500</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>790575</xdr:colOff>
-                    <xdr:row>19</xdr:row>
-                    <xdr:rowOff>838200</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="10262" r:id="rId19" name="Check Box 22">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>123825</xdr:colOff>
-                    <xdr:row>20</xdr:row>
-                    <xdr:rowOff>104775</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>790575</xdr:colOff>
-                    <xdr:row>20</xdr:row>
-                    <xdr:rowOff>371475</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="10263" r:id="rId20" name="Check Box 23">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>123825</xdr:colOff>
-                    <xdr:row>20</xdr:row>
-                    <xdr:rowOff>342900</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>790575</xdr:colOff>
-                    <xdr:row>20</xdr:row>
-                    <xdr:rowOff>609600</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="10264" r:id="rId21" name="Check Box 24">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>123825</xdr:colOff>
-                    <xdr:row>20</xdr:row>
-                    <xdr:rowOff>571500</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>790575</xdr:colOff>
-                    <xdr:row>20</xdr:row>
-                    <xdr:rowOff>838200</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="10265" r:id="rId22" name="Check Box 25">
+            <control shapeId="10265" r:id="rId12" name="Check Box 25">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -29849,7 +29463,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10266" r:id="rId23" name="Check Box 26">
+            <control shapeId="10266" r:id="rId13" name="Check Box 26">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -29871,7 +29485,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10267" r:id="rId24" name="Check Box 27">
+            <control shapeId="10267" r:id="rId14" name="Check Box 27">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -29893,7 +29507,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10268" r:id="rId25" name="Check Box 28">
+            <control shapeId="10268" r:id="rId15" name="Check Box 28">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -29915,7 +29529,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10269" r:id="rId26" name="Check Box 29">
+            <control shapeId="10269" r:id="rId16" name="Check Box 29">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -29937,7 +29551,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10270" r:id="rId27" name="Check Box 30">
+            <control shapeId="10270" r:id="rId17" name="Check Box 30">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -29959,7 +29573,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10271" r:id="rId28" name="Check Box 31">
+            <control shapeId="10271" r:id="rId18" name="Check Box 31">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -29981,7 +29595,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10272" r:id="rId29" name="Check Box 32">
+            <control shapeId="10272" r:id="rId19" name="Check Box 32">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30003,7 +29617,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10273" r:id="rId30" name="Check Box 33">
+            <control shapeId="10273" r:id="rId20" name="Check Box 33">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30025,7 +29639,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10274" r:id="rId31" name="Check Box 34">
+            <control shapeId="10274" r:id="rId21" name="Check Box 34">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30047,7 +29661,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10275" r:id="rId32" name="Check Box 35">
+            <control shapeId="10275" r:id="rId22" name="Check Box 35">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30069,7 +29683,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10276" r:id="rId33" name="Check Box 36">
+            <control shapeId="10276" r:id="rId23" name="Check Box 36">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30091,7 +29705,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10277" r:id="rId34" name="Check Box 37">
+            <control shapeId="10277" r:id="rId24" name="Check Box 37">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30113,7 +29727,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10278" r:id="rId35" name="Check Box 38">
+            <control shapeId="10278" r:id="rId25" name="Check Box 38">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30135,7 +29749,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10279" r:id="rId36" name="Check Box 39">
+            <control shapeId="10279" r:id="rId26" name="Check Box 39">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30157,7 +29771,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10280" r:id="rId37" name="Check Box 40">
+            <control shapeId="10280" r:id="rId27" name="Check Box 40">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30179,7 +29793,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10281" r:id="rId38" name="Check Box 41">
+            <control shapeId="10281" r:id="rId28" name="Check Box 41">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30201,7 +29815,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10282" r:id="rId39" name="Check Box 42">
+            <control shapeId="10282" r:id="rId29" name="Check Box 42">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30223,7 +29837,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10283" r:id="rId40" name="Check Box 43">
+            <control shapeId="10283" r:id="rId30" name="Check Box 43">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30245,7 +29859,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10284" r:id="rId41" name="Check Box 44">
+            <control shapeId="10284" r:id="rId31" name="Check Box 44">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30267,7 +29881,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10285" r:id="rId42" name="Check Box 45">
+            <control shapeId="10285" r:id="rId32" name="Check Box 45">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30289,7 +29903,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10286" r:id="rId43" name="Check Box 46">
+            <control shapeId="10286" r:id="rId33" name="Check Box 46">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30311,7 +29925,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10287" r:id="rId44" name="Check Box 47">
+            <control shapeId="10287" r:id="rId34" name="Check Box 47">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30333,7 +29947,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10288" r:id="rId45" name="Check Box 48">
+            <control shapeId="10288" r:id="rId35" name="Check Box 48">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30355,7 +29969,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10289" r:id="rId46" name="Check Box 49">
+            <control shapeId="10289" r:id="rId36" name="Check Box 49">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30377,7 +29991,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10290" r:id="rId47" name="Check Box 50">
+            <control shapeId="10290" r:id="rId37" name="Check Box 50">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30399,7 +30013,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10291" r:id="rId48" name="Check Box 51">
+            <control shapeId="10291" r:id="rId38" name="Check Box 51">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30421,7 +30035,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10292" r:id="rId49" name="Check Box 52">
+            <control shapeId="10292" r:id="rId39" name="Check Box 52">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30443,7 +30057,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10293" r:id="rId50" name="Check Box 53">
+            <control shapeId="10293" r:id="rId40" name="Check Box 53">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30465,7 +30079,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10294" r:id="rId51" name="Check Box 54">
+            <control shapeId="10294" r:id="rId41" name="Check Box 54">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30487,7 +30101,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10295" r:id="rId52" name="Check Box 55">
+            <control shapeId="10295" r:id="rId42" name="Check Box 55">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30509,7 +30123,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10296" r:id="rId53" name="Check Box 56">
+            <control shapeId="10296" r:id="rId43" name="Check Box 56">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30531,7 +30145,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10297" r:id="rId54" name="Check Box 57">
+            <control shapeId="10297" r:id="rId44" name="Check Box 57">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30553,7 +30167,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10298" r:id="rId55" name="Check Box 58">
+            <control shapeId="10298" r:id="rId45" name="Check Box 58">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30575,7 +30189,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10299" r:id="rId56" name="Check Box 59">
+            <control shapeId="10299" r:id="rId46" name="Check Box 59">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30597,7 +30211,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10300" r:id="rId57" name="Check Box 60">
+            <control shapeId="10300" r:id="rId47" name="Check Box 60">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30619,7 +30233,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10301" r:id="rId58" name="Check Box 61">
+            <control shapeId="10301" r:id="rId48" name="Check Box 61">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30641,20 +30255,20 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10302" r:id="rId59" name="Check Box 62">
+            <control shapeId="10302" r:id="rId49" name="Check Box 62">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>123825</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>342900</xdr:rowOff>
+                    <xdr:rowOff>400050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>790575</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>609600</xdr:rowOff>
+                    <xdr:rowOff>666750</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -30663,20 +30277,20 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10303" r:id="rId60" name="Check Box 63">
+            <control shapeId="10303" r:id="rId50" name="Check Box 63">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>123825</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>571500</xdr:rowOff>
+                    <xdr:rowOff>695325</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>790575</xdr:colOff>
-                    <xdr:row>4</xdr:row>
-                    <xdr:rowOff>838200</xdr:rowOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -30685,20 +30299,20 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10304" r:id="rId61" name="Check Box 64">
+            <control shapeId="10304" r:id="rId51" name="Check Box 64">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>123825</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>104775</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>790575</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>371475</xdr:rowOff>
+                    <xdr:rowOff>314325</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -30707,7 +30321,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10305" r:id="rId62" name="Check Box 65">
+            <control shapeId="10305" r:id="rId52" name="Check Box 65">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30729,7 +30343,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10306" r:id="rId63" name="Check Box 66">
+            <control shapeId="10306" r:id="rId53" name="Check Box 66">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30751,7 +30365,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10307" r:id="rId64" name="Check Box 67">
+            <control shapeId="10307" r:id="rId54" name="Check Box 67">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30773,7 +30387,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10308" r:id="rId65" name="Check Box 68">
+            <control shapeId="10308" r:id="rId55" name="Check Box 68">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30795,7 +30409,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10309" r:id="rId66" name="Check Box 69">
+            <control shapeId="10309" r:id="rId56" name="Check Box 69">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30817,7 +30431,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10310" r:id="rId67" name="Check Box 70">
+            <control shapeId="10310" r:id="rId57" name="Check Box 70">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30839,7 +30453,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10311" r:id="rId68" name="Check Box 71">
+            <control shapeId="10311" r:id="rId58" name="Check Box 71">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30861,7 +30475,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10312" r:id="rId69" name="Check Box 72">
+            <control shapeId="10312" r:id="rId59" name="Check Box 72">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30883,7 +30497,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10313" r:id="rId70" name="Check Box 73">
+            <control shapeId="10313" r:id="rId60" name="Check Box 73">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30905,7 +30519,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10314" r:id="rId71" name="Check Box 74">
+            <control shapeId="10314" r:id="rId61" name="Check Box 74">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30927,7 +30541,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10315" r:id="rId72" name="Check Box 75">
+            <control shapeId="10315" r:id="rId62" name="Check Box 75">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30949,7 +30563,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10316" r:id="rId73" name="Check Box 76">
+            <control shapeId="10316" r:id="rId63" name="Check Box 76">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30971,7 +30585,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10317" r:id="rId74" name="Check Box 77">
+            <control shapeId="10317" r:id="rId64" name="Check Box 77">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -30993,7 +30607,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10318" r:id="rId75" name="Check Box 78">
+            <control shapeId="10318" r:id="rId65" name="Check Box 78">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -31015,7 +30629,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10319" r:id="rId76" name="Check Box 79">
+            <control shapeId="10319" r:id="rId66" name="Check Box 79">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -31037,7 +30651,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10320" r:id="rId77" name="Check Box 80">
+            <control shapeId="10320" r:id="rId67" name="Check Box 80">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -31059,7 +30673,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10321" r:id="rId78" name="Check Box 81">
+            <control shapeId="10321" r:id="rId68" name="Check Box 81">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -31081,7 +30695,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10322" r:id="rId79" name="Check Box 82">
+            <control shapeId="10322" r:id="rId69" name="Check Box 82">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -31103,7 +30717,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10323" r:id="rId80" name="Check Box 83">
+            <control shapeId="10323" r:id="rId70" name="Check Box 83">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -31125,7 +30739,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10324" r:id="rId81" name="Check Box 84">
+            <control shapeId="10324" r:id="rId71" name="Check Box 84">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -31147,7 +30761,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10325" r:id="rId82" name="Check Box 85">
+            <control shapeId="10325" r:id="rId72" name="Check Box 85">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -31169,7 +30783,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10326" r:id="rId83" name="Check Box 86">
+            <control shapeId="10326" r:id="rId73" name="Check Box 86">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -31191,7 +30805,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10327" r:id="rId84" name="Check Box 87">
+            <control shapeId="10327" r:id="rId74" name="Check Box 87">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -31213,7 +30827,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10328" r:id="rId85" name="Check Box 88">
+            <control shapeId="10328" r:id="rId75" name="Check Box 88">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -31235,7 +30849,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10329" r:id="rId86" name="Check Box 89">
+            <control shapeId="10329" r:id="rId76" name="Check Box 89">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -31257,7 +30871,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10330" r:id="rId87" name="Check Box 90">
+            <control shapeId="10330" r:id="rId77" name="Check Box 90">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -31279,7 +30893,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10331" r:id="rId88" name="Check Box 91">
+            <control shapeId="10331" r:id="rId78" name="Check Box 91">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -31301,7 +30915,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10332" r:id="rId89" name="Check Box 92">
+            <control shapeId="10332" r:id="rId79" name="Check Box 92">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -31323,7 +30937,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10333" r:id="rId90" name="Check Box 93">
+            <control shapeId="10333" r:id="rId80" name="Check Box 93">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -31345,7 +30959,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10334" r:id="rId91" name="Check Box 94">
+            <control shapeId="10334" r:id="rId81" name="Check Box 94">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -31367,7 +30981,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10335" r:id="rId92" name="Check Box 95">
+            <control shapeId="10335" r:id="rId82" name="Check Box 95">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -31389,7 +31003,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10336" r:id="rId93" name="Check Box 96">
+            <control shapeId="10336" r:id="rId83" name="Check Box 96">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -31411,7 +31025,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10337" r:id="rId94" name="Check Box 97">
+            <control shapeId="10337" r:id="rId84" name="Check Box 97">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -31433,7 +31047,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="10338" r:id="rId95" name="Check Box 98">
+            <control shapeId="10338" r:id="rId85" name="Check Box 98">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -31447,6 +31061,182 @@
                     <xdr:colOff>4733925</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>1047750</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="10339" r:id="rId86" name="Check Box 99">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>133350</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>4810125</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>285750</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="10340" r:id="rId87" name="Check Box 100">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>133350</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>228600</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>4524375</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>495300</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="10341" r:id="rId88" name="Check Box 101">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>133350</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>447675</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>4810125</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>714375</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="10342" r:id="rId89" name="Check Box 102">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>133350</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>657225</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>4743450</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>923925</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="10343" r:id="rId90" name="Check Box 103">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>104775</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>5210175</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>304800</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="10344" r:id="rId91" name="Check Box 104">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>104775</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>257175</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>4495800</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>523875</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="10345" r:id="rId92" name="Check Box 105">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>104775</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>447675</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>5210175</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>714375</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="10346" r:id="rId93" name="Check Box 106">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>104775</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>657225</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>4714875</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>923925</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -31457,13 +31247,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <tableParts count="1">
-    <tablePart r:id="rId96"/>
+    <tablePart r:id="rId94"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DA81C81-7791-4AD4-A614-CD8EDD380A46}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -33867,6 +33658,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51F8529-832A-410F-BDAA-DF4471452C21}">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">

--- a/src/main/doc/2020年计划.xlsx
+++ b/src/main/doc/2020年计划.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F94484A-7538-4B2C-922B-DE62D2459F5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A96F774-784E-4F26-9366-3CF7721941BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -786,7 +786,7 @@
     <numFmt numFmtId="176" formatCode="[$-804]aaaa;@"/>
     <numFmt numFmtId="177" formatCode="[$-804]aaa;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -853,11 +853,6 @@
       <sz val="9"/>
       <name val="Microsoft YaHei UI"/>
       <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Microsoft YaHei UI"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1421,7 +1416,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp100.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp101.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1429,11 +1424,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp102.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp103.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp104.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1441,11 +1436,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp105.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp106.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp107.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1453,11 +1448,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp108.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp109.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1469,11 +1464,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp111.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp112.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp113.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1481,11 +1476,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp114.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp115.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp116.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1493,11 +1488,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp117.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp118.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp119.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1509,11 +1504,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp120.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp121.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp122.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1521,11 +1516,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp123.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp124.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp125.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1533,11 +1528,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp126.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp127.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp128.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1545,7 +1540,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp129.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1553,7 +1548,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp130.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp131.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1561,11 +1556,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp132.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp133.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp134.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1573,11 +1568,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp135.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp136.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp137.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1585,11 +1580,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp138.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp139.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1601,11 +1596,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp141.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp142.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp143.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1613,11 +1608,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp144.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp145.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp146.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1625,11 +1620,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp147.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp148.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp149.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1641,11 +1636,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp150.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp151.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp152.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1657,7 +1652,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp154.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp155.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1669,7 +1664,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp157.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp158.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1677,7 +1672,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp159.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1693,7 +1688,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp162.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp163.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1705,11 +1700,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp165.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp166.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp167.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1717,11 +1712,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp168.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp169.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1733,11 +1728,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp171.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp172.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp173.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1745,11 +1740,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp174.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp175.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp176.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1757,11 +1752,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp177.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp178.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp179.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1773,11 +1768,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp180.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp181.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp182.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1785,11 +1780,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp183.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp184.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp185.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1801,7 +1796,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp187.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp188.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1809,7 +1804,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp189.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1817,7 +1812,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp190.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp191.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1825,7 +1820,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp192.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp193.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1837,11 +1832,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp195.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp196.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp197.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1849,11 +1844,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp198.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp199.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1869,11 +1864,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp201.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp202.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp203.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1881,11 +1876,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp204.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp205.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp206.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1893,11 +1888,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp207.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp208.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp209.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1909,11 +1904,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp210.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp211.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp212.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1921,11 +1916,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp213.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp214.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp215.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1933,11 +1928,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp216.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp217.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp218.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1945,7 +1940,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp219.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1953,7 +1948,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp220.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp221.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1961,11 +1956,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp222.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp223.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp224.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1973,11 +1968,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp225.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp226.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp227.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1985,11 +1980,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp228.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp229.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2001,11 +1996,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp231.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp232.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp233.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2013,11 +2008,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp234.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp235.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp236.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2025,11 +2020,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp237.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp238.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp239.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2041,11 +2036,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp240.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp241.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp242.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2053,11 +2048,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp243.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp244.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp245.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2065,11 +2060,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp246.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp247.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp248.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2077,7 +2072,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp249.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp25.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2085,7 +2080,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp250.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp251.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2093,11 +2088,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp252.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp253.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp254.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2105,11 +2100,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp255.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp256.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp257.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2117,11 +2112,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp258.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp259.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp26.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2133,11 +2128,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp261.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp262.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp263.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2145,11 +2140,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp264.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp265.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp266.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2157,11 +2152,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp267.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp268.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp269.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2173,11 +2168,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp270.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp271.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp272.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2185,18 +2180,46 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp273.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp274.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp275.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp276.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp277.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp278.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp279.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp28.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp280.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp281.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp282.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
@@ -2485,15 +2508,15 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp93.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp94.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp94.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
 <file path=xl/ctrlProps/ctrlProp95.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp96.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2501,11 +2524,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp97.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp98.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp99.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9766,7 +9789,7 @@
                   <a14:compatExt spid="_x0000_s10339"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFA62C47-79EB-4830-9E5F-2C758E92C917}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000063280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9852,7 +9875,7 @@
                   <a14:compatExt spid="_x0000_s10340"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000060280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000064280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9938,7 +9961,7 @@
                   <a14:compatExt spid="_x0000_s10341"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFA62C47-79EB-4830-9E5F-2C758E92C917}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000065280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10024,7 +10047,7 @@
                   <a14:compatExt spid="_x0000_s10342"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000062280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000066280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10110,7 +10133,7 @@
                   <a14:compatExt spid="_x0000_s10343"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A70E713F-A70B-4BDD-85AC-818670DBDCCF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000067280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10196,7 +10219,7 @@
                   <a14:compatExt spid="_x0000_s10344"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000060280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000068280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10282,7 +10305,7 @@
                   <a14:compatExt spid="_x0000_s10345"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A70E713F-A70B-4BDD-85AC-818670DBDCCF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000069280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10368,7 +10391,7 @@
                   <a14:compatExt spid="_x0000_s10346"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000062280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00006A280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10422,6 +10445,608 @@
                   <a:ea typeface="Microsoft YaHei UI"/>
                 </a:rPr>
                 <a:t>回家少看手机，多陪伴家人</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>638175</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>4752975</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>904875</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10347" name="Check Box 107" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s10347"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00006A280000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>回家少看手机，多陪伴家人</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>219075</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>4533900</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>485775</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10348" name="Check Box 108" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s10348"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000068280000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>光环国际微信公众号：1篇文章</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>142874</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>942975</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>4791075</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>257175</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10350" name="Check Box 110" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s10350"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{683106A9-E67E-4957-8FBD-B36223DAF2EA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>第15课-汇总之王：Subtotal函数汇总隐藏报表，一专多能，游刃有余</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>133349</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>428625</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>4781550</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>695325</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10351" name="Check Box 111" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s10351"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{683106A9-E67E-4957-8FBD-B36223DAF2EA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>第15课-汇总之王：Subtotal函数汇总隐藏报表，一专多能，游刃有余练习</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>161924</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>5086349</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10352" name="Check Box 112" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s10352"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C01F7BE-DB4E-461B-B04D-56576E0DDAB8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>第17课-Indirect函数：利用间接引用实现跨表计算及二级菜单制作</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>161925</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>285750</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>4600575</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>552450</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10353" name="Check Box 113" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s10353"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F76A3696-B548-484E-90D4-619037531489}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>第18课-微图表模拟：利用间接引用实现跨表计算及二级菜单制作</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>161924</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>523875</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>3943349</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>790575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10354" name="Check Box 114" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s10354"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{702AB1F7-6CE2-45C5-9939-32657EE52114}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>第19课-宏表函数：名称管理器里的函数，你知道有多便利吗？</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -28899,8 +29524,8 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -29141,7 +29766,7 @@
       <c r="D20" s="20"/>
       <c r="E20" s="44"/>
     </row>
-    <row r="21" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="131.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21">
         <v>44185</v>
       </c>
@@ -31243,11 +31868,165 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="10347" r:id="rId94" name="Check Box 107">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>638175</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>4752975</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>904875</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="10348" r:id="rId95" name="Check Box 108">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>4533900</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>485775</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="10350" r:id="rId96" name="Check Box 110">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>942975</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>4791075</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>257175</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="10351" r:id="rId97" name="Check Box 111">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>133350</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>428625</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>4781550</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>695325</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="10352" r:id="rId98" name="Check Box 112">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>161925</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>76200</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>5086350</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>342900</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="10353" r:id="rId99" name="Check Box 113">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>161925</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>285750</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>4600575</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>552450</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="10354" r:id="rId100" name="Check Box 114">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>161925</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>523875</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>3943350</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>790575</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>
   <tableParts count="1">
-    <tablePart r:id="rId94"/>
+    <tablePart r:id="rId101"/>
   </tableParts>
 </worksheet>
 </file>
